--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tohainam/Desktop/trungtamgiasuv2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5CDD64-E666-F747-95B3-C8C1845F4CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69724953-FB1A-E64C-A0D3-41E6568342EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="37200" windowHeight="19740" xr2:uid="{6B4FDAAD-CD52-C442-9304-E731D7B1C046}"/>
   </bookViews>
@@ -30,12 +30,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>content</t>
+  </si>
+  <si>
+    <t>gia-su-lop-1</t>
+  </si>
+  <si>
+    <t>gia-su-lop-2</t>
+  </si>
+  <si>
+    <t>gia-su-lop-3</t>
+  </si>
+  <si>
+    <t>gia-su-lop-4</t>
+  </si>
+  <si>
+    <t>gia-su-lop-5</t>
+  </si>
+  <si>
+    <t>gia-su-lop-6</t>
+  </si>
+  <si>
+    <t>gia-su-lop-7</t>
+  </si>
+  <si>
+    <t>gia-su-lop-8</t>
+  </si>
+  <si>
+    <t>gia-su-lop-9</t>
+  </si>
+  <si>
+    <t>gia-su-lop-10</t>
+  </si>
+  <si>
+    <t>gia-su-lop-11</t>
+  </si>
+  <si>
+    <t>gia-su-lop-12</t>
+  </si>
+  <si>
+    <t>gia-su-theo-mon</t>
   </si>
   <si>
     <t>&lt;div class="des_dkgs fixcontent"&gt;
@@ -65,62 +104,178 @@
 &lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="color:#000000"&gt;&lt;span style="font-size:12pt"&gt;&lt;strong&gt;&lt;span style="font-size:13.5pt"&gt;Hotline:&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-size:13.5pt"&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span style="color:#ff0000"&gt;&lt;span style="font-size:12pt"&gt;&lt;span style="font-size:13.5pt"&gt;038.307.0388&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="color:#000000"&gt;&lt;span style="font-size:12pt"&gt;&lt;strong&gt;&lt;span style="font-size:13.5pt"&gt;Email:&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/strong&gt;&lt;span style="font-size:13.5pt"&gt;&amp;nbsp;giasusuphamtainha.hn@gmail.com&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p style="margin-left:0in; margin-right:0in"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;id	content
+gia-su-lop-1	"&lt;div class=""des_dkgs fixcontent""&gt;
+                               &lt;p style=""margin-left:0in; margin-right:0in""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&lt;span style=""color:#ff0000""&gt;&lt;strong&gt;&lt;span style=""font-size:20px""&gt;&lt;span style=""font-family:Cambria,serif""&gt;Gia sư Quốc Tử Giám cung cấp đội ngũ gia sư sư phạm tiểu học hàng đầu tại Hà Nội:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&lt;span style=""color:#000000""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;Đội ngũ giáo viên và gia sư đều có kinh nghiệm dạy tiểu học từ 2 năm trở đi nhằm đảm bảo chất lượng dạy học tốt nhất đến với mỗi gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""color:#ff0000""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;strong&gt;+Gia sư có phẩm chất đạo đức tốt&amp;nbsp;&lt;/strong&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span style=""color:#000000""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;lý lịch rõ ràng, tác phong nhà giáo chững chạc.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;span style=""color:#ff0000""&gt;&lt;strong&gt;+ Tìm gia sư Miễn Phí:&lt;/strong&gt;&lt;/span&gt;&lt;span style=""color:#000000""&gt; tư vấn tìm gia sư miễn phí phù hợp với tính cách học sinh và yêu cầu gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;span style=""color:#ff0000""&gt;&lt;strong&gt;+ Học thử 2 buổi tại nhà:&lt;/strong&gt; &lt;/span&gt;&lt;span style=""color:#000000""&gt;nhằm đảm bảo chất lượng gia sư tốt nhất phù hợp nhất với mỗi học sinh.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;span style=""color:#ff0000""&gt;&lt;strong&gt;+ Đổi ngay gia sư&amp;nbsp;nếu gia đình không hài lòng: &lt;/strong&gt;&lt;/span&gt;&lt;span style=""color:#000000""&gt;Gia sư có kinh nghiệm sư phạm nhưng phương pháp dạy chưa phù hợp với con trẻ nhà bạn, trung tâm gia sư sẽ hỗ trợ đổi gia sư mới để giúp con học tiến bộ hơn.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;span style=""color:#ff0000""&gt;&lt;strong&gt;+Học phí giá rẻ:&lt;/strong&gt; &lt;/span&gt;&lt;span style=""color:#000000""&gt;mức học phí phù hợp với từng gia đình học sinh.Qúy phụ huynh hoàn toàn yên tâm về mức học phí từ trung tâm.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;img alt="""" src=""/upload/images/bg1(9).jpg"" style=""height:300px; width:348px""&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""color:#ff0000""&gt;&lt;span style=""font-size:18px""&gt;Chương trình học kèm 2 tại nhà chỉ từ 80.000/đồng/ buổi.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;strong&gt;&lt;span style=""color:#ff0000""&gt;+Gia sư có hồ sơ rõ ràng: &lt;/span&gt;&lt;/strong&gt;&lt;span style=""color:#000000""&gt;thẻ sinh viên, thẻ giáo viên, bằng tốt nghiệp, CMND, giấy giới thiệu từ trung tâm, chứng chỉ sư phạm&lt;/span&gt;&lt;span style=""color:#333333""&gt;.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;img alt="""" src=""/upload/images/55.jpg""&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""color:#2c3e50""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;Trong quá trình học nếu có vấn đề gì chưa hài lòng, quý phụ huynh có thể thông báo ngay cho chúng tôi để trung tâm có thể đưa ra những điều chỉnh kịp thời nhằm nâng cao chất lượng phục vụ và đảm bảo quyền lợi cho gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""color:#000000""&gt;&lt;span style=""font-size:12pt""&gt;&lt;strong&gt;&lt;span style=""font-size:13.5pt""&gt;Hotline:&lt;/span&gt;&lt;/strong&gt;&lt;span style=""font-size:13.5pt""&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span style=""color:#ff0000""&gt;&lt;span style=""font-size:12pt""&gt;&lt;span style=""font-size:13.5pt""&gt;038.307.0388&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""color:#000000""&gt;&lt;span style=""font-size:12pt""&gt;&lt;strong&gt;&lt;span style=""font-size:13.5pt""&gt;Email:&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/strong&gt;&lt;span style=""font-size:13.5pt""&gt;&amp;nbsp;giasusuphamtainha.hn@gmail.com&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h4&gt;&lt;span style=""color: #993300;""&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+                            &lt;/div&gt;"
+gia-su-lop-2	"
+								&lt;div class=""at-above-post addthis_tool"" data-url=""http://giasutamduc.net/gia-su-lop-2/""&gt;&lt;/div&gt;
+&lt;p&gt;Nếu lớp 1 là thời gian để các bé bắt đầu được làm quen với môi trường học tập thì lớp 2 chính là năm học quan trọng để các con &amp;nbsp;xây những viên gạch vững chắc cho nền tảng kiến thức sau này.&lt;/p&gt;
+&lt;p&gt;Gia sư của &lt;strong&gt;&lt;em&gt;trung tâm gia sư Tâm Đức&lt;/em&gt;&lt;/strong&gt; sẽ dạy và hướng dẫn các con những kiến thức cần thiết đồng đều tất cả các môn học. Trong đó, quan trọng nhất vẫn là toán và tiếng việt, tiếng anh. Gia sư có thể dạy theo yêu cầu riêng của phụ huynh.&lt;/p&gt;
+&lt;p&gt;Vậy nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 2&lt;/strong&gt;&amp;nbsp;cho cháu là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;strong&gt;&lt;em&gt;trung tâm gia sư Tâm Đức&lt;/em&gt;&lt;/strong&gt; chúng tôi giúp bạn.&lt;img class=""img-responsive"" src=""http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2.jpg"" alt="""" width=""1600"" height=""1066"" srcset=""http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2.jpg 1600w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2-768x512.jpg 768w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2-225x150.jpg 225w"" sizes=""(max-width: 1600px) 100vw, 1600px""&gt;&lt;/p&gt;
+&lt;h4&gt;&lt;span style=""color: #993300;""&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 2 trung tâm gia sư Tâm Đức:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Tâm Đức đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Tâm Đức): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;
+&lt;p&gt;&lt;img src=""http://tritue24h.com/admin/webroot/upload/image/images/LOP%20HOC(1).jpg"" alt=""Káº¿t quáº£ hÃ¬nh áº£nh cho gia sÆ° lá»›p 2"" class=""img-responsive""&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""color: #993300;""&gt;“ &lt;em&gt;Đội ngũ gia sư Tâm Đức hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
+&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class=""at-below-post addthis_tool"" data-url=""http://giasutamduc.net/gia-su-lop-2/""&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;							"
+gia-su-lop-3	"&lt;p&gt;Giáo dục bậc tiểu học thường gặp nhiều khó khăn do nhận thức của các em học sinh còn non nớt, đòi hỏi kỹ năng sư phạm cao, sự kiên trì. Ngoài việc học ở trường thì việc học tập ở nhà là rất quan trọng. Đặc biệt là với các em học sinh lớp 3 – khi mà kiến thức ngày càng nhiều và khó hơn. Tuy nhiên không phải bậc phụ huynh nào cũng có kỹ năng giảng dạy và nhiều thời gian để giúp con học tập. Hãy để trung tâm gia sư chúng tôi giúp bạn.&lt;/p&gt;
+&lt;p&gt;Vậy nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&lt;a href=""http://giasuhoangyen.edu.vn/gia-su-lop-3/""&gt;&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 3&lt;/strong&gt;&lt;/a&gt;&amp;nbsp;cho cháu là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;strong&gt;&lt;em&gt;trung tâm gia sư Tâm Đức&lt;/em&gt;&lt;/strong&gt; chúng tôi giúp bạn.&lt;/p&gt;
+&lt;p&gt;&lt;img class=""img-responsive"" src=""http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao.jpg"" alt="""" width=""1200"" height=""800"" srcset=""http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao.jpg 1200w, http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao-768x512.jpg 768w, http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao-225x150.jpg 225w"" sizes=""(max-width: 1200px) 100vw, 1200px""&gt;&lt;/p&gt;
+&lt;h4&gt;&lt;span style=""color: #993300;""&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Tâm Đức:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Tâm Đức đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Tâm Đức): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;
+&lt;p&gt;&lt;img src=""http://tritue24h.com/admin/webroot/upload/image/images/LOP%20HOC(1).jpg"" alt=""Káº¿t quáº£ hÃ¬nh áº£nh cho gia sÆ° lá»›p 2"" class=""img-responsive""&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""color: #993300;""&gt;“ &lt;em&gt;Đội ngũ gia sư Tâm Đức hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
+&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class=""at-below-post addthis_tool"" data-url=""http://giasutamduc.net/gia-su-lop-3/""&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;							&lt;/div&gt;"
+gia-su-lop-4	"&lt;h1 style=""text-align: center;""&gt;&lt;span style=""color: #ff0000; font-size: 18pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;Gia sư giỏi lớp 4,5 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class=""vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info""&gt;
+	&lt;div class=""vc_message_box-icon""&gt;&lt;i class=""fa fa-graduation-cap""&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt; color: #000000;""&gt;Môn học quan trong nhất ở bậc tiểu học là Toán, Tiếng việt, Tiếng anh. Trong năm qua thì việc học sinh tiếp thu kiến thức Toán, Tiếng việt, Tiếng Anh nhất là ở lớp 4, 5 được các nhà chuyên môn hết sức chú trọng, nhằm cung cấp kiến thức cho những năm bản lề khi chuyển lên bậc Trung Học Cơ Sở, các em đủ tự tin và chuyên môn để lĩnh hội chương trình học cao hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;img class=""aligncenter wp-image-1733"" src=""https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-4.jpg"" alt=""Gia sư lớp 4"" width=""450"" height=""338""&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Trọng tâm Toán Tiểu Học:&lt;/span&gt;&amp;nbsp;&lt;/strong&gt;Nghiên cứu về số tự nhiên, phân số, số thập phân, các đại lượng cơ bản, một số yếu tố hình học như đường thẳng, hình hộp, tứ giác, đa giác,&amp;nbsp;bài toán về vận tốc, bài toán có lời văn, cách đổi các đơn vị đo lường, chiều dài, diện tích, thể tích trong hệ quy chiếu SI.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Phần Tiếng Việt Tiểu Học:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Có nhiệm vụ hình thành và phát triển năng lực ngôn ngữ cho các em, từ những kiến thức quen thuộc về Tập Đọc, Chính Tả, Kể Chuyện, Văn Miêu Tả, Tập Làm Văn… sẽ dần nâng cao cho các em thể hiện 4 kỹ năng: Nghe – Nói – Đọc – Viết. Đây là những kỹ năng quan trọng giúp học sinh tự tin và chủ động hòa nhập vào các hoạt động học tập trên trường.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Muốn học Tiếng anh hiệu quả:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Học sinh phải lấy phần phát âm làm gốc sau đó mới đến ngữ pháp và từ vựng. Đặc biệt là với học sinh lớp 4, 5 thì việc dạy cho các em phát âm chuẩn là điều không hề dễ. Một học sinh lớp 4 ở trường chuyên của thủ đô Hà Nội, học tiếng anh đến nay đã là năm thứ 3 theo chương trình đào tạo mà trường em lựa chọn là: Let’s go. Vậy mà khi đọc lại các từ đã được học các em lại đánh vần theo lối mòn ngôn ngữ của người Việt. Ví dụ như từ ”cat” (con mèo) thay vì phát âm chuẩn thì các em lại đọc theo đúng như cách viết của Tiếng Việt.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;Phần Tiếng Việt đã khó thì việc đọc và viết Tiếng Anh còn khó hơn bội phần.&lt;/span&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&amp;nbsp;Vậy điều cần thiết ngay lúc này có phải là tìm một gia sư dạy kèm tại nhà để nỗi lo đó trở nên nhẹ nhàng hơn không?&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; color: #0000ff; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;Gia sư tại nhà lớp 4, 5 có phải là chìa khóa giải quyết khó khăn?&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&amp;nbsp;&lt;/strong&gt; Giúp các em theo kịp bạn bè trên lớp, cải thiện thành tích học tập, giảm áp lực cho cha mẹ.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Nắm bắt được những yêu cầu của học sinh, phát hiện ra những lổ hổng, điểm mạnh điểm yếu của học sinh trong từng môn học để kịp thời khắc phục nhược điểm, phát huy ưu điểm.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Chia sẻ kĩ năng học tập, động viên, khuyến khích, giúp các em có niềm đam mê trong học tập.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style=""color: #000000;""&gt;&amp;nbsp;Gia sư dạy Toán: &lt;/span&gt;Hướng dẫn các em nhanh chóng lấy lại kiến thức gốc, sau đó là nâng cao phát triển khả năng tư duy logic Toán học chỉ sau 10 – 15 buổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style=""color: #008000;""&gt;&amp;nbsp;&lt;span style=""color: #000000;""&gt;Gia sư dạy Tiếng Việt:&lt;/span&gt;&lt;/span&gt; Rèn luyện kĩ năng nghe, nói, đọc, viết một cách sáng tạo, trau chuốt, đồng thời uốn nắn, chỉnh sửa các lỗi về chính tả, câu cú để các em dễ dàng viết được một bài văn hoàn chỉnh có cảm xúc.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style=""color: #000000;""&gt;&amp;nbsp;Gia sư dạy Tiếng Anh: Xây&lt;/span&gt; dựng vốn từ vựng phong phú, giúp các em có nền tảng ngữ pháp vững chắc, phát âm cực chuẩn theo phong cách “Anh – Anh” hoặc “Anh – Mỹ” để phục vụ cho việc học Tiếng Anh chuyên sâu sau này.&lt;/span&gt;&lt;/p&gt;
+&lt;h2 style=""text-align: justify;""&gt;&lt;span style=""color: #0000ff; font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;Phụ huynh ở Hà Nội – Tìm gia sư lớp 4, 5 ở đâu chất lượng?&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;Gia sư Thăng Long Hà Nội&lt;/strong&gt; – Một Trung tâm gia sư hợp pháp, được cấp chứng nhận về chất lượng đào tạo dịch vụ gia sư tại nhà. Quý phụ huynh hoàn toàn yên tâm khi liên hệ với&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;chúng tôi để&amp;nbsp;lựa chọn gia sư giỏi lớp 4, 5 phù hợp cho con. Với đội ngũ giáo viên, sinh viên nhiều năm kinh nghiệm được tuyển chọn từ các trường Đại Học tốp đầu Hà Nội như: Sư Phạm, Ngoại Ngữ, Ngoại Thương, Bách Khoa, Kinh Tế… sẵn sàng dạy kèm &lt;strong&gt;gia sư lớp 4, 5&lt;/strong&gt;&amp;nbsp;tại nhà các môn Toán, Tiếng Việt, Tiếng Anh với chất lượng uy tín và giá thành hợp lý. Chúng tôi cam kết sẽ đáp ứng đầy đủ các tiêu chí:&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;img class=""aligncenter wp-image-2456"" src=""https://giasusupham.com.vn/wp-content/uploads/2017/01/gia-su-toan-lop-8-tai-quan-ba-dinh.jpg"" alt=""Gia sư Văn lớp 10 quận đống đa"" width=""500"" height=""281""&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Cam kết học sinh sẽ tiến bộ sau 10 buổi học đầu tiên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Học sinh được học thử 2 buổi miễn phí để đánh giá chất lượng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Miễn phí 100% chi phí tư vấn và cung cấp gia sư.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư có lý lịch rõ dàng, có phẩm chất đạo đức tốt, có kỹ năng sư phạm 100%&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Phương pháp giảng dậy sáng tạo, khoa học, thu hút học sinh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Dậy theo giáo án chuẩn của thầy cô trong nhà trường do Bộ Giáo Dục ban hành.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Đổi gia sư bất kỳ khi nào nếu phụ huynh &amp;amp; học sinh cảm thấy không phù hợp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư là giáo viên, sinh viên ưu tú trên khắp mọi miền tổ quốc, có thành tích học tập xuất sắc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Kiểm tra sự tiến bộ của học sinh thường xuyên, liên tục theo tuần, theo tháng.&lt;/span&gt;&lt;/p&gt;"
+gia-su-lop-5	"&lt;h1 style=""text-align: center;""&gt;&lt;span style=""color: #ff0000; font-size: 18pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;Gia sư giỏi lớp 4,5 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class=""vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info""&gt;
+	&lt;div class=""vc_message_box-icon""&gt;&lt;i class=""fa fa-graduation-cap""&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt; color: #000000;""&gt;Môn học quan trong nhất ở bậc tiểu học là Toán, Tiếng việt, Tiếng anh. Trong năm qua thì việc học sinh tiếp thu kiến thức Toán, Tiếng việt, Tiếng Anh nhất là ở lớp 4, 5 được các nhà chuyên môn hết sức chú trọng, nhằm cung cấp kiến thức cho những năm bản lề khi chuyển lên bậc Trung Học Cơ Sở, các em đủ tự tin và chuyên môn để lĩnh hội chương trình học cao hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;img class=""aligncenter wp-image-1733"" src=""https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-4.jpg"" alt=""Gia sư lớp 4"" width=""450"" height=""338""&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Trọng tâm Toán Tiểu Học:&lt;/span&gt;&amp;nbsp;&lt;/strong&gt;Nghiên cứu về số tự nhiên, phân số, số thập phân, các đại lượng cơ bản, một số yếu tố hình học như đường thẳng, hình hộp, tứ giác, đa giác,&amp;nbsp;bài toán về vận tốc, bài toán có lời văn, cách đổi các đơn vị đo lường, chiều dài, diện tích, thể tích trong hệ quy chiếu SI.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Phần Tiếng Việt Tiểu Học:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Có nhiệm vụ hình thành và phát triển năng lực ngôn ngữ cho các em, từ những kiến thức quen thuộc về Tập Đọc, Chính Tả, Kể Chuyện, Văn Miêu Tả, Tập Làm Văn… sẽ dần nâng cao cho các em thể hiện 4 kỹ năng: Nghe – Nói – Đọc – Viết. Đây là những kỹ năng quan trọng giúp học sinh tự tin và chủ động hòa nhập vào các hoạt động học tập trên trường.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Muốn học Tiếng anh hiệu quả:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Học sinh phải lấy phần phát âm làm gốc sau đó mới đến ngữ pháp và từ vựng. Đặc biệt là với học sinh lớp 4, 5 thì việc dạy cho các em phát âm chuẩn là điều không hề dễ. Một học sinh lớp 4 ở trường chuyên của thủ đô Hà Nội, học tiếng anh đến nay đã là năm thứ 3 theo chương trình đào tạo mà trường em
                             &lt;/div&gt;</t>
   </si>
   <si>
-    <t>gia-su-lop-1</t>
-  </si>
-  <si>
-    <t>gia-su-lop-2</t>
-  </si>
-  <si>
-    <t>gia-su-lop-3</t>
-  </si>
-  <si>
-    <t>gia-su-lop-4</t>
-  </si>
-  <si>
-    <t>gia-su-lop-5</t>
-  </si>
-  <si>
-    <t>gia-su-lop-6</t>
-  </si>
-  <si>
-    <t>gia-su-lop-7</t>
-  </si>
-  <si>
-    <t>gia-su-lop-8</t>
-  </si>
-  <si>
-    <t>gia-su-lop-9</t>
-  </si>
-  <si>
-    <t>gia-su-lop-10</t>
-  </si>
-  <si>
-    <t>gia-su-lop-11</t>
-  </si>
-  <si>
-    <t>gia-su-lop-12</t>
+    <t>&lt;div class="at-above-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-2/"&gt;&lt;/div&gt;
+&lt;p&gt;Nếu lớp 1 là thời gian để các bé bắt đầu được làm quen với môi trường học tập thì lớp 2 chính là năm học quan trọng để các con &amp;nbsp;xây những viên gạch vững chắc cho nền tảng kiến thức sau này.&lt;/p&gt;
+&lt;p&gt;Gia sư của &lt;strong&gt;&lt;em&gt;trung tâm gia sư Tâm Đức&lt;/em&gt;&lt;/strong&gt; sẽ dạy và hướng dẫn các con những kiến thức cần thiết đồng đều tất cả các môn học. Trong đó, quan trọng nhất vẫn là toán và tiếng việt, tiếng anh. Gia sư có thể dạy theo yêu cầu riêng của phụ huynh.&lt;/p&gt;
+&lt;p&gt;Vậy nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 2&lt;/strong&gt;&amp;nbsp;cho cháu là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;strong&gt;&lt;em&gt;trung tâm gia sư Tâm Đức&lt;/em&gt;&lt;/strong&gt; chúng tôi giúp bạn.&lt;img class="img-responsive" src="http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2.jpg" alt="" width="1600" height="1066" srcset="http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2.jpg 1600w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2-768x512.jpg 768w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2-225x150.jpg 225w" sizes="(max-width: 1600px) 100vw, 1600px"&gt;&lt;/p&gt;
+&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+&lt;p&gt;&lt;img src="http://tritue24h.com/admin/webroot/upload/image/images/LOP%20HOC(1).jpg" alt="Káº¿t quáº£ hÃ¬nh áº£nh cho gia sÆ° lá»›p 2" class="img-fluid"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #993300;"&gt;“ &lt;em&gt;Đội ngũ gia sư Tâm Đức hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
+&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-2/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Giáo dục bậc tiểu học thường gặp nhiều khó khăn do nhận thức của các em học sinh còn non nớt, đòi hỏi kỹ năng sư phạm cao, sự kiên trì. Ngoài việc học ở trường thì việc học tập ở nhà là rất quan trọng. Đặc biệt là với các em học sinh lớp 3 – khi mà kiến thức ngày càng nhiều và khó hơn. Tuy nhiên không phải bậc phụ huynh nào cũng có kỹ năng giảng dạy và nhiều thời gian để giúp con học tập. Hãy để trung tâm gia sư chúng tôi giúp bạn.&lt;/p&gt;
 &lt;p&gt;Vậy nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&lt;a href="http://giasuhoangyen.edu.vn/gia-su-lop-3/"&gt;&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 3&lt;/strong&gt;&lt;/a&gt;&amp;nbsp;cho cháu là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;strong&gt;&lt;em&gt;trung tâm gia sư Tâm Đức&lt;/em&gt;&lt;/strong&gt; chúng tôi giúp bạn.&lt;/p&gt;
 &lt;p&gt;&lt;img class="img-responsive" src="http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao.jpg" alt="" width="1200" height="800" srcset="http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao.jpg 1200w, http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao-768x512.jpg 768w, http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao-225x150.jpg 225w" sizes="(max-width: 1200px) 100vw, 1200px"&gt;&lt;/p&gt;
-&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Tâm Đức:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
-&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Tâm Đức đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
-&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
-&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Tâm Đức): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
-&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;
+&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
 &lt;p&gt;&lt;img src="http://tritue24h.com/admin/webroot/upload/image/images/LOP%20HOC(1).jpg" alt="Káº¿t quáº£ hÃ¬nh áº£nh cho gia sÆ° lá»›p 2" class="img-responsive"&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;span style="color: #993300;"&gt;“ &lt;em&gt;Đội ngũ gia sư Tâm Đức hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
-&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-3/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;							&lt;/div&gt;</t>
+&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-3/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;</t>
   </si>
   <si>
     <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="color: #ff0000; font-size: 18pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư giỏi lớp 4,5 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
@@ -151,10 +306,64 @@
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Dậy theo giáo án chuẩn của thầy cô trong nhà trường do Bộ Giáo Dục ban hành.&lt;/span&gt;&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Đổi gia sư bất kỳ khi nào nếu phụ huynh &amp;amp; học sinh cảm thấy không phù hợp.&lt;/span&gt;&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư là giáo viên, sinh viên ưu tú trên khắp mọi miền tổ quốc, có thành tích học tập xuất sắc.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Kiểm tra sự tiến bộ của học sinh thường xuyên, liên tục theo tuần, theo tháng.&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="des_dkgs fixcontent"&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Kiểm tra sự tiến bộ của học sinh thường xuyên, liên tục theo tuần, theo tháng.&lt;/span&gt;&lt;/p&gt;
+    &lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="color: #ff0000; font-size: 18pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư giỏi lớp 4,5 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
+	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt; color: #000000;"&gt;Môn học quan trong nhất ở bậc tiểu học là Toán, Tiếng việt, Tiếng anh. Trong năm qua thì việc học sinh tiếp thu kiến thức Toán, Tiếng việt, Tiếng Anh nhất là ở lớp 4, 5 được các nhà chuyên môn hết sức chú trọng, nhằm cung cấp kiến thức cho những năm bản lề khi chuyển lên bậc Trung Học Cơ Sở, các em đủ tự tin và chuyên môn để lĩnh hội chương trình học cao hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;img class="aligncenter wp-image-1733" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-4.jpg" alt="Gia sư lớp 4" width="450" height="338"&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;– &amp;nbsp;Trọng tâm Toán Tiểu Học:&lt;/span&gt;&amp;nbsp;&lt;/strong&gt;Nghiên cứu về số tự nhiên, phân số, số thập phân, các đại lượng cơ bản, một số yếu tố hình học như đường thẳng, hình hộp, tứ giác, đa giác,&amp;nbsp;bài toán về vận tốc, bài toán có lời văn, cách đổi các đơn vị đo lường, chiều dài, diện tích, thể tích trong hệ quy chiếu SI.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;– &amp;nbsp;Phần Tiếng Việt Tiểu Học:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Có nhiệm vụ hình thành và phát triển năng lực ngôn ngữ cho các em, từ những kiến thức quen thuộc về Tập Đọc, Chính Tả, Kể Chuyện, Văn Miêu Tả, Tập Làm Văn… sẽ dần nâng cao cho các em thể hiện 4 kỹ năng: Nghe – Nói – Đọc – Viết. Đây là những kỹ năng quan trọng giúp học sinh tự tin và chủ động hòa nhập vào các hoạt động học tập trên trường.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;– &amp;nbsp;Muốn học Tiếng anh hiệu quả:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Học sinh phải lấy phần phát âm làm gốc sau đó mới đến ngữ pháp và từ vựng. Đặc biệt là với học sinh lớp 4, 5 thì việc dạy cho các em phát âm chuẩn là điều không hề dễ. Một học sinh lớp 4 ở trường chuyên của thủ đô Hà Nội, học tiếng anh đến nay đã là năm thứ 3 theo chương trình đào tạo mà trường em lựa chọn là: Let’s go. Vậy mà khi đọc lại các từ đã được học các em lại đánh vần theo lối mòn ngôn ngữ của người Việt. Ví dụ như từ ”cat” (con mèo) thay vì phát âm chuẩn thì các em lại đọc theo đúng như cách viết của Tiếng Việt.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Phần Tiếng Việt đã khó thì việc đọc và viết Tiếng Anh còn khó hơn bội phần.&lt;/span&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&amp;nbsp;Vậy điều cần thiết ngay lúc này có phải là tìm một gia sư dạy kèm tại nhà để nỗi lo đó trở nên nhẹ nhàng hơn không?&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; color: #0000ff; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư tại nhà lớp 4, 5 có phải là chìa khóa giải quyết khó khăn?&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&amp;nbsp;&lt;/strong&gt; Giúp các em theo kịp bạn bè trên lớp, cải thiện thành tích học tập, giảm áp lực cho cha mẹ.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Nắm bắt được những yêu cầu của học sinh, phát hiện ra những lổ hổng, điểm mạnh điểm yếu của học sinh trong từng môn học để kịp thời khắc phục nhược điểm, phát huy ưu điểm.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Chia sẻ kĩ năng học tập, động viên, khuyến khích, giúp các em có niềm đam mê trong học tập.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style="color: #000000;"&gt;&amp;nbsp;Gia sư dạy Toán: &lt;/span&gt;Hướng dẫn các em nhanh chóng lấy lại kiến thức gốc, sau đó là nâng cao phát triển khả năng tư duy logic Toán học chỉ sau 10 – 15 buổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style="color: #008000;"&gt;&amp;nbsp;&lt;span style="color: #000000;"&gt;Gia sư dạy Tiếng Việt:&lt;/span&gt;&lt;/span&gt; Rèn luyện kĩ năng nghe, nói, đọc, viết một cách sáng tạo, trau chuốt, đồng thời uốn nắn, chỉnh sửa các lỗi về chính tả, câu cú để các em dễ dàng viết được một bài văn hoàn chỉnh có cảm xúc.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style="color: #000000;"&gt;&amp;nbsp;Gia sư dạy Tiếng Anh: Xây&lt;/span&gt; dựng vốn từ vựng phong phú, giúp các em có nền tảng ngữ pháp vững chắc, phát âm cực chuẩn theo phong cách “Anh – Anh” hoặc “Anh – Mỹ” để phục vụ cho việc học Tiếng Anh chuyên sâu sau này.&lt;/span&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="color: #0000ff; font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Phụ huynh ở Hà Nội – Tìm gia sư lớp 4, 5 ở đâu chất lượng?&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư Thăng Long Hà Nội&lt;/strong&gt; – Một Trung tâm gia sư hợp pháp, được cấp chứng nhận về chất lượng đào tạo dịch vụ gia sư tại nhà. Quý phụ huynh hoàn toàn yên tâm khi liên hệ với&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;chúng tôi để&amp;nbsp;lựa chọn gia sư giỏi lớp 4, 5 phù hợp cho con. Với đội ngũ giáo viên, sinh viên nhiều năm kinh nghiệm được tuyển chọn từ các trường Đại Học tốp đầu Hà Nội như: Sư Phạm, Ngoại Ngữ, Ngoại Thương, Bách Khoa, Kinh Tế… sẵn sàng dạy kèm &lt;strong&gt;gia sư lớp 4, 5&lt;/strong&gt;&amp;nbsp;tại nhà các môn Toán, Tiếng Việt, Tiếng Anh với chất lượng uy tín và giá thành hợp lý. Chúng tôi cam kết sẽ đáp ứng đầy đủ các tiêu chí:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;img class="aligncenter wp-image-2456" src="https://giasusupham.com.vn/wp-content/uploads/2017/01/gia-su-toan-lop-8-tai-quan-ba-dinh.jpg" alt="Gia sư Văn lớp 10 quận đống đa" width="500" height="281"&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Cam kết học sinh sẽ tiến bộ sau 10 buổi học đầu tiên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Học sinh được học thử 2 buổi miễn phí để đánh giá chất lượng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Miễn phí 100% chi phí tư vấn và cung cấp gia sư.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư có lý lịch rõ dàng, có phẩm chất đạo đức tốt, có kỹ năng sư phạm 100%&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Phương pháp giảng dậy sáng tạo, khoa học, thu hút học sinh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Dậy theo giáo án chuẩn của thầy cô trong nhà trường do Bộ Giáo Dục ban hành.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Đổi gia sư bất kỳ khi nào nếu phụ huynh &amp;amp; học sinh cảm thấy không phù hợp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư là giáo viên, sinh viên ưu tú trên khắp mọi miền tổ quốc, có thành tích học tập xuất sắc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Kiểm tra sự tiến bộ của học sinh thường xuyên, liên tục theo tuần, theo tháng.&lt;/span&gt;&lt;/p&gt;&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="des_dkgs fixcontent"&gt;
 &lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;span style="color:#ff0000"&gt;&lt;span style="font-size:18px"&gt;&lt;strong&gt;Gia sư Quốc Tử Giám cung cấp đội ngũ gia sư sư phạm&amp;nbsp;&amp;nbsp;hàng đầu tại Hà Nội:&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -184,10 +393,23 @@
 &lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="color:#000000"&gt;&lt;span style="font-size:12pt"&gt;&lt;strong&gt;&lt;span style="font-size:13.5pt"&gt;Email:&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/strong&gt;&lt;span style="font-size:13.5pt"&gt;&amp;nbsp;giasusuphamtainha.hn@gmail.com&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p style="margin-left:0in; margin-right:0in"&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p style="margin-left:0in; margin-right:0in"&gt;&amp;nbsp;&lt;/p&gt;
-                            &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;h1 style="text-align: center;"&gt;&lt;span style="font-size: 18pt; font-family: arial, helvetica, sans-serif; color: #ff0000;"&gt;&lt;strong&gt;Gia sư giỏi lớp 7 tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+                                    &lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+                            &lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h1 style="text-align: center;"&gt;&lt;span style="font-size: 18pt; font-family: arial, helvetica, sans-serif; color: #ff0000;"&gt;&lt;strong&gt;Gia sư giỏi lớp 7 tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
 &lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
 	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
 	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="color: #000000; font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Quý phụ huynh đang có nhu cầu tìm gia sư lớp 7 cho con.&amp;nbsp;Gia sư Thăng Long xin giới thiệu đội ngũ giáo viên, sinh viên sư phạm giỏi. Chuyên dạy kèm các môn Toán, Lý, Hoá, Văn, Anh… từ cơ bản đến nâng cao các lớp 6, 7, 8, 9, 10, 11, 12 uy tín tại Hà Nội. Học sinh sẽ nhanh chóng tiến bộ và có phương pháp học tập hiệu quả ngay sau 10 buổi dạy đầu tiên.&lt;/span&gt;&lt;/p&gt;
@@ -212,8 +434,19 @@
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Hình thức dạy một thầy một trò giúp con bạn tiến bộ nhanh hơn vì nhận được sự quan tâm tuyệt đối từ người dạy.&lt;/span&gt;&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Không lo lắng con bạn sẽ ra ngoài tụ tập bạn bè hay bỏ học chơi game…&lt;/span&gt;&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Nắm rõ được thông tin và có quyền lựa chọn gia sư tốt nhất, phù hợp với với tính cách, lực học của con.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Được học thử 2 buổi miễn phí để đánh giá chất lượng của gia sư.&lt;/span&gt;&lt;/p&gt;
-</t>
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Được học thử 2 buổi miễn phí để đánh giá chất lượng của gia sư.&lt;/span&gt;&lt;/p&gt;&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+     </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;div class="at-above-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-8/"&gt;&lt;/div&gt;
@@ -233,28 +466,20 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;span style="color: #993300;"&gt;“ &lt;em&gt;Đội ngũ gia sư Tâm Đức hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
-&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-8/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-								&lt;div class="at-above-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-2/"&gt;&lt;/div&gt;
-&lt;p&gt;Nếu lớp 1 là thời gian để các bé bắt đầu được làm quen với môi trường học tập thì lớp 2 chính là năm học quan trọng để các con &amp;nbsp;xây những viên gạch vững chắc cho nền tảng kiến thức sau này.&lt;/p&gt;
-&lt;p&gt;Gia sư của &lt;strong&gt;&lt;em&gt;trung tâm gia sư Tâm Đức&lt;/em&gt;&lt;/strong&gt; sẽ dạy và hướng dẫn các con những kiến thức cần thiết đồng đều tất cả các môn học. Trong đó, quan trọng nhất vẫn là toán và tiếng việt, tiếng anh. Gia sư có thể dạy theo yêu cầu riêng của phụ huynh.&lt;/p&gt;
-&lt;p&gt;Vậy nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 2&lt;/strong&gt;&amp;nbsp;cho cháu là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;strong&gt;&lt;em&gt;trung tâm gia sư Tâm Đức&lt;/em&gt;&lt;/strong&gt; chúng tôi giúp bạn.&lt;img class="img-responsive" src="http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2.jpg" alt="" width="1600" height="1066" srcset="http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2.jpg 1600w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2-768x512.jpg 768w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2-225x150.jpg 225w" sizes="(max-width: 1600px) 100vw, 1600px"&gt;&lt;/p&gt;
-&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 2 trung tâm gia sư Tâm Đức:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
-&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Tâm Đức đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
-&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
-&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Tâm Đức): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
-&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;
-&lt;p&gt;&lt;img src="http://tritue24h.com/admin/webroot/upload/image/images/LOP%20HOC(1).jpg" alt="Káº¿t quáº£ hÃ¬nh áº£nh cho gia sÆ° lá»›p 2" class="img-responsive"&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;span style="color: #993300;"&gt;“ &lt;em&gt;Đội ngũ gia sư Tâm Đức hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
-&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-2/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;							</t>
+    &lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-8/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;
+</t>
   </si>
   <si>
     <t>&lt;div class="at-above-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-9/"&gt;&lt;/div&gt;
@@ -274,10 +499,22 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;span style="color: #993300;"&gt;“ &lt;em&gt;Đội ngũ gia sư Tâm Đức hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
+&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
 &lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-9/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h1 style="text-align: center;"&gt;&lt;span style="font-size: 18pt; font-family: arial, helvetica, sans-serif; color: #ff0000;"&gt;&lt;strong&gt;Gia sư giỏi lớp 10 tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+    <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="font-size: 18pt; font-family: arial, helvetica, sans-serif; color: #ff0000;"&gt;&lt;strong&gt;Gia sư giỏi lớp 10 tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
 &lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
 	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
 	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt; color: #000000;"&gt;Nhằm cung cấp gia sư giỏi dạy kèm tại Hà Nội, Trung Tâm Gia Sư Thăng Long&amp;nbsp;với đội ngũ giáo viên, sinh viên nhiều năm kinh nghiệm chuyên dạy kèm các môn Toán, Ngữ Văn, Tiếng Anh, Vật Lý, Hoá Học…từ cơ bản đến nâng cao. Giúp các em có nền tảng kiến thức vững chắc để sau này ôn thi Tốt Nghiệp, Đại Học thành công.&lt;/span&gt;&lt;/p&gt;
@@ -321,10 +558,21 @@
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Được học thử 2 buổi miễn phí để gia đình hoàn toàn yên tâm về chất lượng gia sư&lt;/span&gt;&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Đổi gia sư bất kỳ lúc nào nếu phụ huynh, học sinh cảm thấy không hài lòng.&lt;/span&gt;&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Hỗ trợ tư vấn vài vở, phương pháp học 24/7 qua điện thoại, mail, facebook…hoàn toàn miễn phí.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h1 style="text-align: center;"&gt;&lt;span style="font-size: 18pt; color: #ff0000; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư giỏi lớp 11 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+    &lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="font-size: 18pt; color: #ff0000; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư giỏi lớp 11 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
 &lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
 	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
 	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif; color: #000000;"&gt;Gia sư Thăng Long xin giới thiệu dịch vụ gia sư lớp 11 chất lượng cao tại Hà Nội. Đội ngũ gia sư là giáo viên, sinh viên giỏi nhận dạy kèm tại nhà các môn Toán, Lý, Hóa, Văn, Anh lớp 11 hiệu quả cao nhất trong thời gian ngắn nhất.&lt;/span&gt;&lt;/p&gt;
@@ -354,10 +602,21 @@
 &lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Đổi gia sư bất kỳ khi nào nếu phụ huynh &amp;amp; học sinh cảm thấy không phù hợp&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Gia sư là giáo viên, sinh viên ưu tú, có thành tích học tập giỏi.&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Kiểm tra sự tiến bộ của học sinh thường xuyên, liên tục theo tuần hoặc theo tháng&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2 style="text-align: center;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 18pt;"&gt;&lt;strong&gt;&lt;span style="color: #ff0000;"&gt;Gia sư giỏi lớp 12 kèm tại nhà dành cho con bạn&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+    &lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align: center;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 18pt;"&gt;&lt;strong&gt;&lt;span style="color: #ff0000;"&gt;Gia sư giỏi lớp 12 kèm tại nhà dành cho con bạn&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
 &lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
 	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
 	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="color: #000000; font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Năm học cuối cấp chắc hẳn khiến các bậc phụ huynh và các em học sinh cảm thấy hồi hộp, lo lắng trước những kì thi quan trọng, đặc biệt là kỳ thi Đại Học. Hàng loạt các môn học tự nhiên khối A, A1, B, D… thậm chí cả môn thi xã hội như khối C, đang khiến các em trở nên rối loạn, còn các bậc phụ huynh loay hoay tìm cách giúp con mình đảm bảo kiến thức, giảm bớt lo lắng và áp lực tinh thần để vượt qua kì thi thành công. Một&amp;nbsp;&lt;strong&gt;gia sư lớp 12&lt;/strong&gt; sẽ giúp các em giữ vững tâm lý, trau dồi kiến thức để bước vào kỳ thi quan trọng đạt thành tích cao nhất.&lt;/span&gt;&lt;/p&gt;
@@ -380,11 +639,18 @@
 &lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Luyện thi Đại Học bài bản, phương pháp tư duy nhanh, đảm bảo đầu ra cho các em.&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Cung cấp gia sư giỏi miễn phí 100% phù hợp với yêu cầu gia đình.&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Kiểm tra, giám sát sự tiến bộ của học sinh hàng tuần, hàng tháng.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Đổi gia sư bất kỳ lúc nào nếu phụ huynh và học sinh cảm thấy không phù hợp.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>gia-su-theo-mon</t>
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Đổi gia sư bất kỳ lúc nào nếu phụ huynh và học sinh cảm thấy không phù hợp.&lt;/span&gt;&lt;/p&gt;&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 18pt; color: #ff0000;"&gt;&lt;strong&gt;Gia sư theo môn cho học sinh từ lớp 1 đến lớp 12&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
@@ -408,7 +674,634 @@
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Ngoài ra còn có các môn như Tiếng Anh, Tiếng Pháp, Tiếng Trung, Tiếng Hàn,…và còn đội ngũ gia sư theo từng khối học:&lt;/span&gt;&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư Tiểu Học:&lt;/strong&gt; bao gồm sinh viên các trường sư phạm, kinh tế, ngoại thương trên 2 năm kinh nghiệm dạy kèm cho các lớp 1,2,3,4,5, giáo viên trường tiểu học trên địa bàn Hà Nội và cả giáo viên về hưu trên 50. Đều có kỹ năng sư phạm tốt và nhiều năm chăm sóc và dạy trẻ.&lt;/span&gt;&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư THCS:&lt;/strong&gt; giáo viên hỗ trợ học sinh nắm vững các kiến thức cơ bản đặc biệt là lớp 9 và cố gắng ôn tập luyện thi học sinh giỏi, ôn thi vào trường điểm.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư THPT:&lt;/strong&gt; giáo viên sẽ tổng hợp lại toàn bộ kiến thức đã học và giúp đỡ các em học yếu bám sát bài giảng trên lớp. Tư vấn, định hướng tương lai và đưa ra mục tiêu phù hợp với năng lực của học sinh.&lt;/span&gt;&lt;/p&gt;</t>
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư THPT:&lt;/strong&gt; giáo viên sẽ tổng hợp lại toàn bộ kiến thức đã học và giúp đỡ các em học yếu bám sát bài giảng trên lớp. Tư vấn, định hướng tương lai và đưa ra mục tiêu phù hợp với năng lực của học sinh.&lt;/span&gt;&lt;/p&gt;&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư Quốc Tử Giám:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư Quốc Tử Giám đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư Quốc Tử Giám): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="des_dkgs fixcontent"&gt;
+                               &lt;p style="margin-left:0in; margin-right:0in"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in"&gt;&lt;span style="color:#ff0000"&gt;&lt;strong&gt;&lt;span style="font-size:20px"&gt;&lt;span style="font-family:Cambria,serif"&gt;Gia sư cao cấp Bảo Trang cung cấp đội ngũ gia sư sư phạm tiểu học hàng đầu tại Hà Nội:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in"&gt;&lt;span style="color:#000000"&gt;&lt;span style="font-size:18px"&gt;&lt;span style="font-family:Tahoma,Geneva,sans-serif"&gt;Đội ngũ giáo viên và gia sư đều có kinh nghiệm dạy tiểu học từ 2 năm trở đi nhằm đảm bảo chất lượng dạy học tốt nhất đến với mỗi gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="color:#ff0000"&gt;&lt;span style="font-size:18px"&gt;&lt;span style="font-family:Tahoma,Geneva,sans-serif"&gt;&lt;strong&gt;+Gia sư có phẩm chất đạo đức tốt&amp;nbsp;&lt;/strong&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span style="color:#000000"&gt;&lt;span style="font-size:18px"&gt;&lt;span style="font-family:Tahoma,Geneva,sans-serif"&gt;lý lịch rõ ràng, tác phong nhà giáo chững chạc.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in"&gt;&lt;span style="font-size:18px"&gt;&lt;span style="font-family:Tahoma,Geneva,sans-serif"&gt;&lt;span style="color:#ff0000"&gt;&lt;strong&gt;+ Tìm gia sư Miễn Phí:&lt;/strong&gt;&lt;/span&gt;&lt;span style="color:#000000"&gt; tư vấn tìm gia sư miễn phí phù hợp với tính cách học sinh và yêu cầu gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in"&gt;&lt;span style="font-size:18px"&gt;&lt;span style="font-family:Tahoma,Geneva,sans-serif"&gt;&lt;span style="color:#ff0000"&gt;&lt;strong&gt;+ Học thử 2 buổi tại nhà:&lt;/strong&gt; &lt;/span&gt;&lt;span style="color:#000000"&gt;nhằm đảm bảo chất lượng gia sư tốt nhất phù hợp nhất với mỗi học sinh.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="font-size:18px"&gt;&lt;span style="font-family:Tahoma,Geneva,sans-serif"&gt;&lt;span style="color:#ff0000"&gt;&lt;strong&gt;+ Đổi ngay gia sư&amp;nbsp;nếu gia đình không hài lòng: &lt;/strong&gt;&lt;/span&gt;&lt;span style="color:#000000"&gt;Gia sư có kinh nghiệm sư phạm nhưng phương pháp dạy chưa phù hợp với con trẻ nhà bạn, trung tâm gia sư sẽ hỗ trợ đổi gia sư mới để giúp con học tiến bộ hơn.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="font-size:18px"&gt;&lt;span style="font-family:Tahoma,Geneva,sans-serif"&gt;&lt;span style="color:#ff0000"&gt;&lt;strong&gt;+Học phí giá rẻ:&lt;/strong&gt; &lt;/span&gt;&lt;span style="color:#000000"&gt;mức học phí phù hợp với từng gia đình học sinh.Qúy phụ huynh hoàn toàn yên tâm về mức học phí từ trung tâm.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;img alt="" src="/upload/images/bg1(9).jpg" style="height:300px; width:348px"&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="color:#ff0000"&gt;&lt;span style="font-size:18px"&gt;Chương trình học kèm 2 tại nhà chỉ từ 80.000/đồng/ buổi.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="font-size:18px"&gt;&lt;span style="font-family:Tahoma,Geneva,sans-serif"&gt;&lt;strong&gt;&lt;span style="color:#ff0000"&gt;+Gia sư có hồ sơ rõ ràng: &lt;/span&gt;&lt;/strong&gt;&lt;span style="color:#000000"&gt;thẻ sinh viên, thẻ giáo viên, bằng tốt nghiệp, CMND, giấy giới thiệu từ trung tâm, chứng chỉ sư phạm&lt;/span&gt;&lt;span style="color:#333333"&gt;.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;img alt="" src="/upload/images/55.jpg"&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="color:#2c3e50"&gt;&lt;span style="font-size:18px"&gt;&lt;span style="font-family:Tahoma,Geneva,sans-serif"&gt;Trong quá trình học nếu có vấn đề gì chưa hài lòng, quý phụ huynh có thể thông báo ngay cho chúng tôi để trung tâm có thể đưa ra những điều chỉnh kịp thời nhằm nâng cao chất lượng phục vụ và đảm bảo quyền lợi cho gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="color:#000000"&gt;&lt;span style="font-size:12pt"&gt;&lt;strong&gt;&lt;span style="font-size:13.5pt"&gt;Hotline:&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-size:13.5pt"&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span style="color:#ff0000"&gt;&lt;span style="font-size:12pt"&gt;&lt;span style="font-size:13.5pt"&gt;038.307.0388&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="color:#000000"&gt;&lt;span style="font-size:12pt"&gt;&lt;strong&gt;&lt;span style="font-size:13.5pt"&gt;Email:&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/strong&gt;&lt;span style="font-size:13.5pt"&gt;&amp;nbsp;giasusuphamtainha.hn@gmail.com&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;id	content
+gia-su-lop-1	"&lt;div class=""des_dkgs fixcontent""&gt;
+                               &lt;p style=""margin-left:0in; margin-right:0in""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&lt;span style=""color:#ff0000""&gt;&lt;strong&gt;&lt;span style=""font-size:20px""&gt;&lt;span style=""font-family:Cambria,serif""&gt;Gia sư cao cấp Bảo Trang cung cấp đội ngũ gia sư sư phạm tiểu học hàng đầu tại Hà Nội:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&lt;span style=""color:#000000""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;Đội ngũ giáo viên và gia sư đều có kinh nghiệm dạy tiểu học từ 2 năm trở đi nhằm đảm bảo chất lượng dạy học tốt nhất đến với mỗi gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""color:#ff0000""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;strong&gt;+Gia sư có phẩm chất đạo đức tốt&amp;nbsp;&lt;/strong&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span style=""color:#000000""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;lý lịch rõ ràng, tác phong nhà giáo chững chạc.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;span style=""color:#ff0000""&gt;&lt;strong&gt;+ Tìm gia sư Miễn Phí:&lt;/strong&gt;&lt;/span&gt;&lt;span style=""color:#000000""&gt; tư vấn tìm gia sư miễn phí phù hợp với tính cách học sinh và yêu cầu gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;span style=""color:#ff0000""&gt;&lt;strong&gt;+ Học thử 2 buổi tại nhà:&lt;/strong&gt; &lt;/span&gt;&lt;span style=""color:#000000""&gt;nhằm đảm bảo chất lượng gia sư tốt nhất phù hợp nhất với mỗi học sinh.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;span style=""color:#ff0000""&gt;&lt;strong&gt;+ Đổi ngay gia sư&amp;nbsp;nếu gia đình không hài lòng: &lt;/strong&gt;&lt;/span&gt;&lt;span style=""color:#000000""&gt;Gia sư có kinh nghiệm sư phạm nhưng phương pháp dạy chưa phù hợp với con trẻ nhà bạn, trung tâm gia sư sẽ hỗ trợ đổi gia sư mới để giúp con học tiến bộ hơn.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;span style=""color:#ff0000""&gt;&lt;strong&gt;+Học phí giá rẻ:&lt;/strong&gt; &lt;/span&gt;&lt;span style=""color:#000000""&gt;mức học phí phù hợp với từng gia đình học sinh.Qúy phụ huynh hoàn toàn yên tâm về mức học phí từ trung tâm.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;img alt="""" src=""/upload/images/bg1(9).jpg"" style=""height:300px; width:348px""&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""color:#ff0000""&gt;&lt;span style=""font-size:18px""&gt;Chương trình học kèm 2 tại nhà chỉ từ 80.000/đồng/ buổi.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;&lt;strong&gt;&lt;span style=""color:#ff0000""&gt;+Gia sư có hồ sơ rõ ràng: &lt;/span&gt;&lt;/strong&gt;&lt;span style=""color:#000000""&gt;thẻ sinh viên, thẻ giáo viên, bằng tốt nghiệp, CMND, giấy giới thiệu từ trung tâm, chứng chỉ sư phạm&lt;/span&gt;&lt;span style=""color:#333333""&gt;.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;img alt="""" src=""/upload/images/55.jpg""&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""color:#2c3e50""&gt;&lt;span style=""font-size:18px""&gt;&lt;span style=""font-family:Tahoma,Geneva,sans-serif""&gt;Trong quá trình học nếu có vấn đề gì chưa hài lòng, quý phụ huynh có thể thông báo ngay cho chúng tôi để trung tâm có thể đưa ra những điều chỉnh kịp thời nhằm nâng cao chất lượng phục vụ và đảm bảo quyền lợi cho gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""color:#000000""&gt;&lt;span style=""font-size:12pt""&gt;&lt;strong&gt;&lt;span style=""font-size:13.5pt""&gt;Hotline:&lt;/span&gt;&lt;/strong&gt;&lt;span style=""font-size:13.5pt""&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span style=""color:#ff0000""&gt;&lt;span style=""font-size:12pt""&gt;&lt;span style=""font-size:13.5pt""&gt;038.307.0388&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in; text-align:justify""&gt;&lt;span style=""color:#000000""&gt;&lt;span style=""font-size:12pt""&gt;&lt;strong&gt;&lt;span style=""font-size:13.5pt""&gt;Email:&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/strong&gt;&lt;span style=""font-size:13.5pt""&gt;&amp;nbsp;giasusuphamtainha.hn@gmail.com&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""margin-left:0in; margin-right:0in""&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h4&gt;&lt;span style=""color: #993300;""&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+                            &lt;/div&gt;"
+gia-su-lop-2	"
+								&lt;div class=""at-above-post addthis_tool"" data-url=""http://giasutamduc.net/gia-su-lop-2/""&gt;&lt;/div&gt;
+&lt;p&gt;Nếu lớp 1 là thời gian để các bé bắt đầu được làm quen với môi trường học tập thì lớp 2 chính là năm học quan trọng để các con &amp;nbsp;xây những viên gạch vững chắc cho nền tảng kiến thức sau này.&lt;/p&gt;
+&lt;p&gt;Gia sư của &lt;strong&gt;&lt;em&gt;trung tâm gia sư cao cấp Bảo Trang&lt;/em&gt;&lt;/strong&gt; sẽ dạy và hướng dẫn các con những kiến thức cần thiết đồng đều tất cả các môn học. Trong đó, quan trọng nhất vẫn là toán và tiếng việt, tiếng anh. Gia sư có thể dạy theo yêu cầu riêng của phụ huynh.&lt;/p&gt;
+&lt;p&gt;Vậy nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 2&lt;/strong&gt;&amp;nbsp;cho cháu là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;strong&gt;&lt;em&gt;trung tâm gia sư cao cấp Bảo Trang&lt;/em&gt;&lt;/strong&gt; chúng tôi giúp bạn.&lt;img class=""img-fluid"" src=""http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2.jpg"" alt="""" width=""1600"" height=""1066"" srcset=""http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2.jpg 1600w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2-768x512.jpg 768w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2-225x150.jpg 225w"" sizes=""(max-width: 1600px) 100vw, 1600px""&gt;&lt;/p&gt;
+&lt;h4&gt;&lt;span style=""color: #993300;""&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 2 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;
+&lt;p&gt;&lt;img src=""http://tritue24h.com/admin/webroot/upload/image/images/LOP%20HOC(1).jpg"" alt=""Káº¿t quáº£ hÃ¬nh áº£nh cho gia sÆ° lá»›p 2"" class=""img-fluid""&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""color: #993300;""&gt;“ &lt;em&gt;Đội ngũ gia sư cao cấp Bảo Trang hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
+&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class=""at-below-post addthis_tool"" data-url=""http://giasutamduc.net/gia-su-lop-2/""&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;							"
+gia-su-lop-3	"&lt;p&gt;Giáo dục bậc tiểu học thường gặp nhiều khó khăn do nhận thức của các em học sinh còn non nớt, đòi hỏi kỹ năng sư phạm cao, sự kiên trì. Ngoài việc học ở trường thì việc học tập ở nhà là rất quan trọng. Đặc biệt là với các em học sinh lớp 3 – khi mà kiến thức ngày càng nhiều và khó hơn. Tuy nhiên không phải bậc phụ huynh nào cũng có kỹ năng giảng dạy và nhiều thời gian để giúp con học tập. Hãy để trung tâm gia sư chúng tôi giúp bạn.&lt;/p&gt;
+&lt;p&gt;Vậy nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&lt;a href=""http://giasuhoangyen.edu.vn/gia-su-lop-3/""&gt;&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 3&lt;/strong&gt;&lt;/a&gt;&amp;nbsp;cho cháu là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;strong&gt;&lt;em&gt;trung tâm gia sư cao cấp Bảo Trang&lt;/em&gt;&lt;/strong&gt; chúng tôi giúp bạn.&lt;/p&gt;
+&lt;p&gt;&lt;img class=""img-fluid"" src=""http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao.jpg"" alt="""" width=""1200"" height=""800"" srcset=""http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao.jpg 1200w, http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao-768x512.jpg 768w, http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao-225x150.jpg 225w"" sizes=""(max-width: 1200px) 100vw, 1200px""&gt;&lt;/p&gt;
+&lt;h4&gt;&lt;span style=""color: #993300;""&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class=""fa fa-check"" style=""color: red;""&gt;&lt;/i&gt; &lt;span style=""color: #ff0000;""&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;
+&lt;p&gt;&lt;img src=""http://tritue24h.com/admin/webroot/upload/image/images/LOP%20HOC(1).jpg"" alt=""Káº¿t quáº£ hÃ¬nh áº£nh cho gia sÆ° lá»›p 2"" class=""img-fluid""&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""color: #993300;""&gt;“ &lt;em&gt;Đội ngũ gia sư cao cấp Bảo Trang hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
+&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class=""at-below-post addthis_tool"" data-url=""http://giasutamduc.net/gia-su-lop-3/""&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;							&lt;/div&gt;"
+gia-su-lop-4	"&lt;h1 style=""text-align: center;""&gt;&lt;span style=""color: #ff0000; font-size: 18pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;Gia sư giỏi lớp 4,5 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class=""vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info""&gt;
+	&lt;div class=""vc_message_box-icon""&gt;&lt;i class=""fa fa-graduation-cap""&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt; color: #000000;""&gt;Môn học quan trong nhất ở bậc tiểu học là Toán, Tiếng việt, Tiếng anh. Trong năm qua thì việc học sinh tiếp thu kiến thức Toán, Tiếng việt, Tiếng Anh nhất là ở lớp 4, 5 được các nhà chuyên môn hết sức chú trọng, nhằm cung cấp kiến thức cho những năm bản lề khi chuyển lên bậc Trung Học Cơ Sở, các em đủ tự tin và chuyên môn để lĩnh hội chương trình học cao hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;img class=""aligncenter wp-image-1733"" src=""https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-4.jpg"" alt=""Gia sư lớp 4"" width=""450"" height=""338""&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Trọng tâm Toán Tiểu Học:&lt;/span&gt;&amp;nbsp;&lt;/strong&gt;Nghiên cứu về số tự nhiên, phân số, số thập phân, các đại lượng cơ bản, một số yếu tố hình học như đường thẳng, hình hộp, tứ giác, đa giác,&amp;nbsp;bài toán về vận tốc, bài toán có lời văn, cách đổi các đơn vị đo lường, chiều dài, diện tích, thể tích trong hệ quy chiếu SI.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Phần Tiếng Việt Tiểu Học:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Có nhiệm vụ hình thành và phát triển năng lực ngôn ngữ cho các em, từ những kiến thức quen thuộc về Tập Đọc, Chính Tả, Kể Chuyện, Văn Miêu Tả, Tập Làm Văn… sẽ dần nâng cao cho các em thể hiện 4 kỹ năng: Nghe – Nói – Đọc – Viết. Đây là những kỹ năng quan trọng giúp học sinh tự tin và chủ động hòa nhập vào các hoạt động học tập trên trường.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Muốn học Tiếng anh hiệu quả:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Học sinh phải lấy phần phát âm làm gốc sau đó mới đến ngữ pháp và từ vựng. Đặc biệt là với học sinh lớp 4, 5 thì việc dạy cho các em phát âm chuẩn là điều không hề dễ. Một học sinh lớp 4 ở trường chuyên của thủ đô Hà Nội, học tiếng anh đến nay đã là năm thứ 3 theo chương trình đào tạo mà trường em lựa chọn là: Let’s go. Vậy mà khi đọc lại các từ đã được học các em lại đánh vần theo lối mòn ngôn ngữ của người Việt. Ví dụ như từ ”cat” (con mèo) thay vì phát âm chuẩn thì các em lại đọc theo đúng như cách viết của Tiếng Việt.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;Phần Tiếng Việt đã khó thì việc đọc và viết Tiếng Anh còn khó hơn bội phần.&lt;/span&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&amp;nbsp;Vậy điều cần thiết ngay lúc này có phải là tìm một gia sư dạy kèm tại nhà để nỗi lo đó trở nên nhẹ nhàng hơn không?&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; color: #0000ff; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;Gia sư tại nhà lớp 4, 5 có phải là chìa khóa giải quyết khó khăn?&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&amp;nbsp;&lt;/strong&gt; Giúp các em theo kịp bạn bè trên lớp, cải thiện thành tích học tập, giảm áp lực cho cha mẹ.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Nắm bắt được những yêu cầu của học sinh, phát hiện ra những lổ hổng, điểm mạnh điểm yếu của học sinh trong từng môn học để kịp thời khắc phục nhược điểm, phát huy ưu điểm.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Chia sẻ kĩ năng học tập, động viên, khuyến khích, giúp các em có niềm đam mê trong học tập.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style=""color: #000000;""&gt;&amp;nbsp;Gia sư dạy Toán: &lt;/span&gt;Hướng dẫn các em nhanh chóng lấy lại kiến thức gốc, sau đó là nâng cao phát triển khả năng tư duy logic Toán học chỉ sau 10 – 15 buổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style=""color: #008000;""&gt;&amp;nbsp;&lt;span style=""color: #000000;""&gt;Gia sư dạy Tiếng Việt:&lt;/span&gt;&lt;/span&gt; Rèn luyện kĩ năng nghe, nói, đọc, viết một cách sáng tạo, trau chuốt, đồng thời uốn nắn, chỉnh sửa các lỗi về chính tả, câu cú để các em dễ dàng viết được một bài văn hoàn chỉnh có cảm xúc.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style=""color: #000000;""&gt;&amp;nbsp;Gia sư dạy Tiếng Anh: Xây&lt;/span&gt; dựng vốn từ vựng phong phú, giúp các em có nền tảng ngữ pháp vững chắc, phát âm cực chuẩn theo phong cách “Anh – Anh” hoặc “Anh – Mỹ” để phục vụ cho việc học Tiếng Anh chuyên sâu sau này.&lt;/span&gt;&lt;/p&gt;
+&lt;h2 style=""text-align: justify;""&gt;&lt;span style=""color: #0000ff; font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;Phụ huynh ở Hà Nội – Tìm gia sư lớp 4, 5 ở đâu chất lượng?&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;Gia sư cao cấp Bảo Trang&lt;/strong&gt; – Một Trung tâm gia sư hợp pháp, được cấp chứng nhận về chất lượng đào tạo dịch vụ gia sư tại nhà. Quý phụ huynh hoàn toàn yên tâm khi liên hệ với&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;chúng tôi để&amp;nbsp;lựa chọn gia sư giỏi lớp 4, 5 phù hợp cho con. Với đội ngũ giáo viên, sinh viên nhiều năm kinh nghiệm được tuyển chọn từ các trường Đại Học tốp đầu Hà Nội như: Sư Phạm, Ngoại Ngữ, Ngoại Thương, Bách Khoa, Kinh Tế… sẵn sàng dạy kèm &lt;strong&gt;gia sư lớp 4, 5&lt;/strong&gt;&amp;nbsp;tại nhà các môn Toán, Tiếng Việt, Tiếng Anh với chất lượng uy tín và giá thành hợp lý. Chúng tôi cam kết sẽ đáp ứng đầy đủ các tiêu chí:&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;img class=""aligncenter wp-image-2456"" src=""https://giasusupham.com.vn/wp-content/uploads/2017/01/gia-su-toan-lop-8-tai-quan-ba-dinh.jpg"" alt=""Gia sư Văn lớp 10 quận đống đa"" width=""500"" height=""281""&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Cam kết học sinh sẽ tiến bộ sau 10 buổi học đầu tiên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Học sinh được học thử 2 buổi miễn phí để đánh giá chất lượng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Miễn phí 100% chi phí tư vấn và cung cấp gia sư.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư có lý lịch rõ dàng, có phẩm chất đạo đức tốt, có kỹ năng sư phạm 100%&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Phương pháp giảng dậy sáng tạo, khoa học, thu hút học sinh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Dậy theo giáo án chuẩn của thầy cô trong nhà trường do Bộ Giáo Dục ban hành.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Đổi gia sư bất kỳ khi nào nếu phụ huynh &amp;amp; học sinh cảm thấy không phù hợp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư là giáo viên, sinh viên ưu tú trên khắp mọi miền tổ quốc, có thành tích học tập xuất sắc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Kiểm tra sự tiến bộ của học sinh thường xuyên, liên tục theo tuần, theo tháng.&lt;/span&gt;&lt;/p&gt;"
+gia-su-lop-5	"&lt;h1 style=""text-align: center;""&gt;&lt;span style=""color: #ff0000; font-size: 18pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;Gia sư giỏi lớp 4,5 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class=""vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info""&gt;
+	&lt;div class=""vc_message_box-icon""&gt;&lt;i class=""fa fa-graduation-cap""&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt; color: #000000;""&gt;Môn học quan trong nhất ở bậc tiểu học là Toán, Tiếng việt, Tiếng anh. Trong năm qua thì việc học sinh tiếp thu kiến thức Toán, Tiếng việt, Tiếng Anh nhất là ở lớp 4, 5 được các nhà chuyên môn hết sức chú trọng, nhằm cung cấp kiến thức cho những năm bản lề khi chuyển lên bậc Trung Học Cơ Sở, các em đủ tự tin và chuyên môn để lĩnh hội chương trình học cao hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;img class=""aligncenter wp-image-1733"" src=""https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-4.jpg"" alt=""Gia sư lớp 4"" width=""450"" height=""338""&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Trọng tâm Toán Tiểu Học:&lt;/span&gt;&amp;nbsp;&lt;/strong&gt;Nghiên cứu về số tự nhiên, phân số, số thập phân, các đại lượng cơ bản, một số yếu tố hình học như đường thẳng, hình hộp, tứ giác, đa giác,&amp;nbsp;bài toán về vận tốc, bài toán có lời văn, cách đổi các đơn vị đo lường, chiều dài, diện tích, thể tích trong hệ quy chiếu SI.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-size: 12pt; font-family: arial, helvetica, sans-serif;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Phần Tiếng Việt Tiểu Học:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Có nhiệm vụ hình thành và phát triển năng lực ngôn ngữ cho các em, từ những kiến thức quen thuộc về Tập Đọc, Chính Tả, Kể Chuyện, Văn Miêu Tả, Tập Làm Văn… sẽ dần nâng cao cho các em thể hiện 4 kỹ năng: Nghe – Nói – Đọc – Viết. Đây là những kỹ năng quan trọng giúp học sinh tự tin và chủ động hòa nhập vào các hoạt động học tập trên trường.&lt;/span&gt;&lt;/p&gt;
+&lt;p style=""text-align: justify;""&gt;&lt;span style=""font-family: arial, helvetica, sans-serif; font-size: 12pt;""&gt;&lt;strong&gt;&lt;span style=""color: #008000;""&gt;– &amp;nbsp;Muốn học Tiếng anh hiệu quả:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Học sinh phải lấy phần phát âm làm gốc sau đó mới đến ngữ pháp và từ vựng. Đặc biệt là với học sinh lớp 4, 5 thì việc dạy cho các em phát âm chuẩn là điều không hề dễ. Một học sinh lớp 4 ở trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chuyên của thủ đô Hà Nội, học tiếng anh"</t>
+  </si>
+  <si>
+    <t>đến nay đã là năm thứ 3 theo chương trình đào tạo mà trường em</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="at-above-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-2/"&gt;&lt;/div&gt;
+&lt;p&gt;Nếu lớp 1 là thời gian để các bé bắt đầu được làm quen với môi trường học tập thì lớp 2 chính là năm học quan trọng để các con &amp;nbsp;xây những viên gạch vững chắc cho nền tảng kiến thức sau này.&lt;/p&gt;
+&lt;p&gt;Gia sư của &lt;strong&gt;&lt;em&gt;trung tâm gia sư cao cấp Bảo Trang&lt;/em&gt;&lt;/strong&gt; sẽ dạy và hướng dẫn các con những kiến thức cần thiết đồng đều tất cả các môn học. Trong đó, quan trọng nhất vẫn là toán và tiếng việt, tiếng anh. Gia sư có thể dạy theo yêu cầu riêng của phụ huynh.&lt;/p&gt;
+&lt;p&gt;Vậy nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 2&lt;/strong&gt;&amp;nbsp;cho cháu là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;strong&gt;&lt;em&gt;trung tâm gia sư cao cấp Bảo Trang&lt;/em&gt;&lt;/strong&gt; chúng tôi giúp bạn.&lt;img class="img-fluid" src="http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2.jpg" alt="" width="1600" height="1066" srcset="http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2.jpg 1600w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2-768x512.jpg 768w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-day-kem-lop-2-2-225x150.jpg 225w" sizes="(max-width: 1600px) 100vw, 1600px"&gt;&lt;/p&gt;
+&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+&lt;p&gt;&lt;img src="http://tritue24h.com/admin/webroot/upload/image/images/LOP%20HOC(1).jpg" alt="Káº¿t quáº£ hÃ¬nh áº£nh cho gia sÆ° lá»›p 2" class="img-fluid"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #993300;"&gt;“ &lt;em&gt;Đội ngũ gia sư cao cấp Bảo Trang hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
+&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-2/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giáo dục bậc tiểu học thường gặp nhiều khó khăn do nhận thức của các em học sinh còn non nớt, đòi hỏi kỹ năng sư phạm cao, sự kiên trì. Ngoài việc học ở trường thì việc học tập ở nhà là rất quan trọng. Đặc biệt là với các em học sinh lớp 3 – khi mà kiến thức ngày càng nhiều và khó hơn. Tuy nhiên không phải bậc phụ huynh nào cũng có kỹ năng giảng dạy và nhiều thời gian để giúp con học tập. Hãy để trung tâm gia sư chúng tôi giúp bạn.&lt;/p&gt;
+&lt;p&gt;Vậy nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&lt;a href="http://giasuhoangyen.edu.vn/gia-su-lop-3/"&gt;&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 3&lt;/strong&gt;&lt;/a&gt;&amp;nbsp;cho cháu là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;strong&gt;&lt;em&gt;trung tâm gia sư cao cấp Bảo Trang&lt;/em&gt;&lt;/strong&gt; chúng tôi giúp bạn.&lt;/p&gt;
+&lt;p&gt;&lt;img class="img-fluid" src="http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao.jpg" alt="" width="1200" height="800" srcset="http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao.jpg 1200w, http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao-768x512.jpg 768w, http://giasutamduc.net/wp-content/uploads/2017/09/doi-ngu-gia-su-tay-nghe-cao-225x150.jpg 225w" sizes="(max-width: 1200px) 100vw, 1200px"&gt;&lt;/p&gt;
+&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+&lt;p&gt;&lt;img src="http://tritue24h.com/admin/webroot/upload/image/images/LOP%20HOC(1).jpg" alt="Káº¿t quáº£ hÃ¬nh áº£nh cho gia sÆ° lá»›p 2" class="img-fluid"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #993300;"&gt;“ &lt;em&gt;Đội ngũ gia sư cao cấp Bảo Trang hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
+&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-3/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="color: #ff0000; font-size: 18pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư giỏi lớp 4,5 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
+	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt; color: #000000;"&gt;Môn học quan trong nhất ở bậc tiểu học là Toán, Tiếng việt, Tiếng anh. Trong năm qua thì việc học sinh tiếp thu kiến thức Toán, Tiếng việt, Tiếng Anh nhất là ở lớp 4, 5 được các nhà chuyên môn hết sức chú trọng, nhằm cung cấp kiến thức cho những năm bản lề khi chuyển lên bậc Trung Học Cơ Sở, các em đủ tự tin và chuyên môn để lĩnh hội chương trình học cao hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;img class="aligncenter wp-image-1733" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-4.jpg" alt="Gia sư lớp 4" width="450" height="338"&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;– &amp;nbsp;Trọng tâm Toán Tiểu Học:&lt;/span&gt;&amp;nbsp;&lt;/strong&gt;Nghiên cứu về số tự nhiên, phân số, số thập phân, các đại lượng cơ bản, một số yếu tố hình học như đường thẳng, hình hộp, tứ giác, đa giác,&amp;nbsp;bài toán về vận tốc, bài toán có lời văn, cách đổi các đơn vị đo lường, chiều dài, diện tích, thể tích trong hệ quy chiếu SI.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;– &amp;nbsp;Phần Tiếng Việt Tiểu Học:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Có nhiệm vụ hình thành và phát triển năng lực ngôn ngữ cho các em, từ những kiến thức quen thuộc về Tập Đọc, Chính Tả, Kể Chuyện, Văn Miêu Tả, Tập Làm Văn… sẽ dần nâng cao cho các em thể hiện 4 kỹ năng: Nghe – Nói – Đọc – Viết. Đây là những kỹ năng quan trọng giúp học sinh tự tin và chủ động hòa nhập vào các hoạt động học tập trên trường.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;– &amp;nbsp;Muốn học Tiếng anh hiệu quả:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Học sinh phải lấy phần phát âm làm gốc sau đó mới đến ngữ pháp và từ vựng. Đặc biệt là với học sinh lớp 4, 5 thì việc dạy cho các em phát âm chuẩn là điều không hề dễ. Một học sinh lớp 4 ở trường chuyên của thủ đô Hà Nội, học tiếng anh đến nay đã là năm thứ 3 theo chương trình đào tạo mà trường em lựa chọn là: Let’s go. Vậy mà khi đọc lại các từ đã được học các em lại đánh vần theo lối mòn ngôn ngữ của người Việt. Ví dụ như từ ”cat” (con mèo) thay vì phát âm chuẩn thì các em lại đọc theo đúng như cách viết của Tiếng Việt.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Phần Tiếng Việt đã khó thì việc đọc và viết Tiếng Anh còn khó hơn bội phần.&lt;/span&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&amp;nbsp;Vậy điều cần thiết ngay lúc này có phải là tìm một gia sư dạy kèm tại nhà để nỗi lo đó trở nên nhẹ nhàng hơn không?&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; color: #0000ff; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư tại nhà lớp 4, 5 có phải là chìa khóa giải quyết khó khăn?&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&amp;nbsp;&lt;/strong&gt; Giúp các em theo kịp bạn bè trên lớp, cải thiện thành tích học tập, giảm áp lực cho cha mẹ.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Nắm bắt được những yêu cầu của học sinh, phát hiện ra những lổ hổng, điểm mạnh điểm yếu của học sinh trong từng môn học để kịp thời khắc phục nhược điểm, phát huy ưu điểm.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Chia sẻ kĩ năng học tập, động viên, khuyến khích, giúp các em có niềm đam mê trong học tập.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style="color: #000000;"&gt;&amp;nbsp;Gia sư dạy Toán: &lt;/span&gt;Hướng dẫn các em nhanh chóng lấy lại kiến thức gốc, sau đó là nâng cao phát triển khả năng tư duy logic Toán học chỉ sau 10 – 15 buổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style="color: #008000;"&gt;&amp;nbsp;&lt;span style="color: #000000;"&gt;Gia sư dạy Tiếng Việt:&lt;/span&gt;&lt;/span&gt; Rèn luyện kĩ năng nghe, nói, đọc, viết một cách sáng tạo, trau chuốt, đồng thời uốn nắn, chỉnh sửa các lỗi về chính tả, câu cú để các em dễ dàng viết được một bài văn hoàn chỉnh có cảm xúc.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style="color: #000000;"&gt;&amp;nbsp;Gia sư dạy Tiếng Anh: Xây&lt;/span&gt; dựng vốn từ vựng phong phú, giúp các em có nền tảng ngữ pháp vững chắc, phát âm cực chuẩn theo phong cách “Anh – Anh” hoặc “Anh – Mỹ” để phục vụ cho việc học Tiếng Anh chuyên sâu sau này.&lt;/span&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="color: #0000ff; font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Phụ huynh ở Hà Nội – Tìm gia sư lớp 4, 5 ở đâu chất lượng?&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư cao cấp Bảo Trang&lt;/strong&gt; – Một Trung tâm gia sư hợp pháp, được cấp chứng nhận về chất lượng đào tạo dịch vụ gia sư tại nhà. Quý phụ huynh hoàn toàn yên tâm khi liên hệ với&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;chúng tôi để&amp;nbsp;lựa chọn gia sư giỏi lớp 4, 5 phù hợp cho con. Với đội ngũ giáo viên, sinh viên nhiều năm kinh nghiệm được tuyển chọn từ các trường Đại Học tốp đầu Hà Nội như: Sư Phạm, Ngoại Ngữ, Ngoại Thương, Bách Khoa, Kinh Tế… sẵn sàng dạy kèm &lt;strong&gt;gia sư lớp 4, 5&lt;/strong&gt;&amp;nbsp;tại nhà các môn Toán, Tiếng Việt, Tiếng Anh với chất lượng uy tín và giá thành hợp lý. Chúng tôi cam kết sẽ đáp ứng đầy đủ các tiêu chí:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;img class="aligncenter wp-image-2456" src="https://giasusupham.com.vn/wp-content/uploads/2017/01/gia-su-toan-lop-8-tai-quan-ba-dinh.jpg" alt="Gia sư Văn lớp 10 quận đống đa" width="500" height="281"&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Cam kết học sinh sẽ tiến bộ sau 10 buổi học đầu tiên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Học sinh được học thử 2 buổi miễn phí để đánh giá chất lượng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Miễn phí 100% chi phí tư vấn và cung cấp gia sư.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư có lý lịch rõ dàng, có phẩm chất đạo đức tốt, có kỹ năng sư phạm 100%&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Phương pháp giảng dậy sáng tạo, khoa học, thu hút học sinh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Dậy theo giáo án chuẩn của thầy cô trong nhà trường do Bộ Giáo Dục ban hành.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Đổi gia sư bất kỳ khi nào nếu phụ huynh &amp;amp; học sinh cảm thấy không phù hợp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư là giáo viên, sinh viên ưu tú trên khắp mọi miền tổ quốc, có thành tích học tập xuất sắc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Kiểm tra sự tiến bộ của học sinh thường xuyên, liên tục theo tuần, theo tháng.&lt;/span&gt;&lt;/p&gt;
+    &lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="color: #ff0000; font-size: 18pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư giỏi lớp 4,5 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
+	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt; color: #000000;"&gt;Môn học quan trong nhất ở bậc tiểu học là Toán, Tiếng việt, Tiếng anh. Trong năm qua thì việc học sinh tiếp thu kiến thức Toán, Tiếng việt, Tiếng Anh nhất là ở lớp 4, 5 được các nhà chuyên môn hết sức chú trọng, nhằm cung cấp kiến thức cho những năm bản lề khi chuyển lên bậc Trung Học Cơ Sở, các em đủ tự tin và chuyên môn để lĩnh hội chương trình học cao hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;img class="aligncenter wp-image-1733" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-4.jpg" alt="Gia sư lớp 4" width="450" height="338"&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;– &amp;nbsp;Trọng tâm Toán Tiểu Học:&lt;/span&gt;&amp;nbsp;&lt;/strong&gt;Nghiên cứu về số tự nhiên, phân số, số thập phân, các đại lượng cơ bản, một số yếu tố hình học như đường thẳng, hình hộp, tứ giác, đa giác,&amp;nbsp;bài toán về vận tốc, bài toán có lời văn, cách đổi các đơn vị đo lường, chiều dài, diện tích, thể tích trong hệ quy chiếu SI.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;– &amp;nbsp;Phần Tiếng Việt Tiểu Học:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Có nhiệm vụ hình thành và phát triển năng lực ngôn ngữ cho các em, từ những kiến thức quen thuộc về Tập Đọc, Chính Tả, Kể Chuyện, Văn Miêu Tả, Tập Làm Văn… sẽ dần nâng cao cho các em thể hiện 4 kỹ năng: Nghe – Nói – Đọc – Viết. Đây là những kỹ năng quan trọng giúp học sinh tự tin và chủ động hòa nhập vào các hoạt động học tập trên trường.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;– &amp;nbsp;Muốn học Tiếng anh hiệu quả:&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;Học sinh phải lấy phần phát âm làm gốc sau đó mới đến ngữ pháp và từ vựng. Đặc biệt là với học sinh lớp 4, 5 thì việc dạy cho các em phát âm chuẩn là điều không hề dễ. Một học sinh lớp 4 ở trường chuyên của thủ đô Hà Nội, học tiếng anh đến nay đã là năm thứ 3 theo chương trình đào tạo mà trường em lựa chọn là: Let’s go. Vậy mà khi đọc lại các từ đã được học các em lại đánh vần theo lối mòn ngôn ngữ của người Việt. Ví dụ như từ ”cat” (con mèo) thay vì phát âm chuẩn thì các em lại đọc theo đúng như cách viết của Tiếng Việt.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Phần Tiếng Việt đã khó thì việc đọc và viết Tiếng Anh còn khó hơn bội phần.&lt;/span&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&amp;nbsp;Vậy điều cần thiết ngay lúc này có phải là tìm một gia sư dạy kèm tại nhà để nỗi lo đó trở nên nhẹ nhàng hơn không?&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; color: #0000ff; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư tại nhà lớp 4, 5 có phải là chìa khóa giải quyết khó khăn?&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&amp;nbsp;&lt;/strong&gt; Giúp các em theo kịp bạn bè trên lớp, cải thiện thành tích học tập, giảm áp lực cho cha mẹ.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Nắm bắt được những yêu cầu của học sinh, phát hiện ra những lổ hổng, điểm mạnh điểm yếu của học sinh trong từng môn học để kịp thời khắc phục nhược điểm, phát huy ưu điểm.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Chia sẻ kĩ năng học tập, động viên, khuyến khích, giúp các em có niềm đam mê trong học tập.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style="color: #000000;"&gt;&amp;nbsp;Gia sư dạy Toán: &lt;/span&gt;Hướng dẫn các em nhanh chóng lấy lại kiến thức gốc, sau đó là nâng cao phát triển khả năng tư duy logic Toán học chỉ sau 10 – 15 buổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style="color: #008000;"&gt;&amp;nbsp;&lt;span style="color: #000000;"&gt;Gia sư dạy Tiếng Việt:&lt;/span&gt;&lt;/span&gt; Rèn luyện kĩ năng nghe, nói, đọc, viết một cách sáng tạo, trau chuốt, đồng thời uốn nắn, chỉnh sửa các lỗi về chính tả, câu cú để các em dễ dàng viết được một bài văn hoàn chỉnh có cảm xúc.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;•&lt;/strong&gt; &lt;span style="color: #000000;"&gt;&amp;nbsp;Gia sư dạy Tiếng Anh: Xây&lt;/span&gt; dựng vốn từ vựng phong phú, giúp các em có nền tảng ngữ pháp vững chắc, phát âm cực chuẩn theo phong cách “Anh – Anh” hoặc “Anh – Mỹ” để phục vụ cho việc học Tiếng Anh chuyên sâu sau này.&lt;/span&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="color: #0000ff; font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Phụ huynh ở Hà Nội – Tìm gia sư lớp 4, 5 ở đâu chất lượng?&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư cao cấp Bảo Trang&lt;/strong&gt; – Một Trung tâm gia sư hợp pháp, được cấp chứng nhận về chất lượng đào tạo dịch vụ gia sư tại nhà. Quý phụ huynh hoàn toàn yên tâm khi liên hệ với&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;chúng tôi để&amp;nbsp;lựa chọn gia sư giỏi lớp 4, 5 phù hợp cho con. Với đội ngũ giáo viên, sinh viên nhiều năm kinh nghiệm được tuyển chọn từ các trường Đại Học tốp đầu Hà Nội như: Sư Phạm, Ngoại Ngữ, Ngoại Thương, Bách Khoa, Kinh Tế… sẵn sàng dạy kèm &lt;strong&gt;gia sư lớp 4, 5&lt;/strong&gt;&amp;nbsp;tại nhà các môn Toán, Tiếng Việt, Tiếng Anh với chất lượng uy tín và giá thành hợp lý. Chúng tôi cam kết sẽ đáp ứng đầy đủ các tiêu chí:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;img class="aligncenter wp-image-2456" src="https://giasusupham.com.vn/wp-content/uploads/2017/01/gia-su-toan-lop-8-tai-quan-ba-dinh.jpg" alt="Gia sư Văn lớp 10 quận đống đa" width="500" height="281"&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Cam kết học sinh sẽ tiến bộ sau 10 buổi học đầu tiên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt; &amp;nbsp;Học sinh được học thử 2 buổi miễn phí để đánh giá chất lượng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Miễn phí 100% chi phí tư vấn và cung cấp gia sư.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư có lý lịch rõ dàng, có phẩm chất đạo đức tốt, có kỹ năng sư phạm 100%&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Phương pháp giảng dậy sáng tạo, khoa học, thu hút học sinh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Dậy theo giáo án chuẩn của thầy cô trong nhà trường do Bộ Giáo Dục ban hành.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Đổi gia sư bất kỳ khi nào nếu phụ huynh &amp;amp; học sinh cảm thấy không phù hợp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Gia sư là giáo viên, sinh viên ưu tú trên khắp mọi miền tổ quốc, có thành tích học tập xuất sắc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;• &amp;nbsp;&lt;/strong&gt;Kiểm tra sự tiến bộ của học sinh thường xuyên, liên tục theo tuần, theo tháng.&lt;/span&gt;&lt;/p&gt;&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="des_dkgs fixcontent"&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color:#ff0000"&gt;&lt;span style="font-size:18px"&gt;&lt;strong&gt;Gia sư cao cấp Bảo Trang cung cấp đội ngũ gia sư sư phạm&amp;nbsp;&amp;nbsp;hàng đầu tại Hà Nội:&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size:18px"&gt;&lt;span style="color:#2c3e50"&gt;&lt;strong&gt;&lt;em&gt;Gia sư cao cấp Bảo Trang&lt;/em&gt;&lt;/strong&gt;&lt;em&gt;&lt;strong&gt;:&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;em&gt;&lt;strong&gt;&amp;nbsp;&amp;nbsp;&lt;/strong&gt;&lt;/em&gt;Được thành lập năm 2005 , với hơn 12 năm kinh nghiệm trong lĩnh vực cung cấp gia sư sư phạm hàng đầu tại Hà Nội chúng tôi cam kết dịch vụ gia sư dạy kèm tại nhà uy tín nhất Hà Nội.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size:18px"&gt;+ Gia sư có phẩm chất đạo đức tốt, lý lịch rõ ràng, tác phong nhà giáo chững chạc&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size:18px"&gt;&lt;strong&gt;&lt;span style="color:#ff0000"&gt;+ Tìm gia sư Miễn Phí:&lt;/span&gt;&lt;span style="color:#2c3e50"&gt;&amp;nbsp;&lt;/span&gt;&lt;/strong&gt;tư vấn tìm gia sư miễn phí phù hợp với tính cách học sinh và yêu cầu gia đình.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size:18px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&lt;img alt="" src="/upload/images/bg2(7).jpg" style="height:300px; width:435px"&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color:#ff0000"&gt;&lt;span style="font-size:18px"&gt;Chương trình học kèm 2 tại nhà chỉ từ 80.000/ buổi.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size:18px"&gt;&lt;span style="color:#ff0000"&gt;&lt;strong&gt;+ Học thử 2 buổi tại nhà&amp;nbsp;:&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;nhằm đảm bảo chất lượng gia sư tốt nhất phù hợp nhất với mỗi học sinh.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size:18px"&gt;&lt;span style="color:#ff0000"&gt;&lt;strong&gt;+ Đổi ngay gia sư&amp;nbsp;nếu gia đình không hài lòng:&lt;/strong&gt;&amp;nbsp;&lt;/span&gt;Gia sư có kinh nghiệm sư phạm nhưng phương pháp dạy chưa phù hợp với con trẻ nhà bạn, trung tâm gia sư sẽ hỗ trợ đổi gia sư mới để giúp con học tiến bộ hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size:18px"&gt;&lt;span style="color:#ff0000"&gt;&lt;strong&gt;+ Học phí giá rẻ:&lt;/strong&gt;&lt;/span&gt;&amp;nbsp;mức học phí phù hợp với từng gia đình học sinh.Qúy phụ huynh hoàn toàn yên tâm về mức học phí từ trung tâm.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color:#ff0000"&gt;&lt;strong&gt;&lt;span style="font-size:18px"&gt;+ Hoàn 100% học phí nếu không tiến bộ theo như cam kết.&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size:18px"&gt;&lt;strong&gt;&lt;span style="color:#ff0000"&gt;+ Gia sư có hồ sơ rõ ràng:&lt;/span&gt;&lt;span style="color:#2c3e50"&gt;&amp;nbsp;&lt;/span&gt;&lt;/strong&gt;thẻ sinh viên, thẻ giáo viên, bằng tốt nghiệp, CMND, giấy giới thiệu từ trung tâm, chứng chỉ sư phạm.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img alt="" src="/upload/images/55(4).jpg"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color:#2c3e50"&gt;&lt;span style="font-size:18px"&gt;Trong quá trình học nếu có vấn đề gì chưa hài lòng, quý phụ huynh có thể thông báo ngay cho chúng tôi để trung tâm có thể đưa ra những điều chỉnh kịp thời nhằm nâng cao chất lượng phục vụ và đảm bảo quyền lợi cho gia đình&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="color:#000000"&gt;&lt;span style="font-size:12pt"&gt;&lt;strong&gt;&lt;span style="font-size:13.5pt"&gt;Hotline:&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-size:13.5pt"&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span style="color:#ff0000"&gt;&lt;span style="font-size:12pt"&gt;&lt;span style="font-size:13.5pt"&gt;038.307.0388&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in; text-align:justify"&gt;&lt;span style="color:#000000"&gt;&lt;span style="font-size:12pt"&gt;&lt;strong&gt;&lt;span style="font-size:13.5pt"&gt;Email:&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/strong&gt;&lt;span style="font-size:13.5pt"&gt;&amp;nbsp;giasusuphamtainha.hn@gmail.com&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="margin-left:0in; margin-right:0in"&gt;&amp;nbsp;&lt;/p&gt;
+                                    &lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+                            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="font-size: 18pt; font-family: arial, helvetica, sans-serif; color: #ff0000;"&gt;&lt;strong&gt;Gia sư giỏi lớp 7 tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
+	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="color: #000000; font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Quý phụ huynh đang có nhu cầu tìm gia sư lớp 7 cho con.&amp;nbsp;Gia sư cao cấp Bảo Trang xin giới thiệu đội ngũ giáo viên, sinh viên sư phạm giỏi. Chuyên dạy kèm các môn Toán, Lý, Hoá, Văn, Anh… từ cơ bản đến nâng cao các lớp 6, 7, 8, 9, 10, 11, 12 uy tín tại Hà Nội. Học sinh sẽ nhanh chóng tiến bộ và có phương pháp học tập hiệu quả ngay sau 10 buổi dạy đầu tiên.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Lớp 7 là năm học các em đã dần ổn định với môi trường học tập mới năm lớp 6. Tuy nhiên, thêm một lớp là thêm một nấc thang, thêm những kiến thức và những trải nghiệm mới. Về cơ bản thì chương trình lớp 7 sẽ nối tiếp phần kiến thức của lớp 6, nhưng dạng bài tập sẽ khó và nâng cao dần lên, yêu cầu học sinh phải tự học, tìm tòi và sáng tạo.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Do vậy, để duy trì học tập ổn định thì học sinh phải cố gắng rất nhiều, phải có chiến lược học tập bài bản thì mới có thể thành công.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;img class="aligncenter wp-image-2246" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-7.jpg" alt="Gia sư lớp 7" width="500" height="281"&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif; color: #0000ff;"&gt;&lt;strong&gt;Trong năm học này, các em cần bồi dưỡng kiến thức của 4 môn học chủ đạo sau:&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;span style="color: #ff6600;"&gt;&lt;strong&gt;Môn Toán:&lt;/strong&gt; &lt;/span&gt;Gia sư sẽ hướng dẫn học sinh nắm được các định nghĩa, phân biệt được các tập số (Tập số tự nhiên, Số nguyên, Số hữu tỷ, Số thực). Biết so sánh các số hữu tỷ với nhau. Thành thạo các dạng toán liên quan đến (Giá trị tuyệt đối, Lũy thừa, Căn thức bậc hai…). Vẽ được đồ thị hàm số dạng y = ax. Tính giá trị của đơn thức, đa thức một cách thành thạo. Phần hình học, &lt;strong&gt;gia sư lớp 7&lt;/strong&gt; sẽ giúp học sinh có phương pháp tư duy để chứng minh các bài toán song song, vuông góc một cách logic và nhanh nhất.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;span style="color: #ff6600;"&gt;&lt;strong&gt;Môn Văn:&lt;/strong&gt; &lt;/span&gt;Phần tập làm văn,&lt;strong&gt; gia sư dạy kèm lớp 7&lt;/strong&gt; sẽ giúp học sinh có kỹ năng viết văn một cách mạch lạc, trau chuốt, đầy cảm xúc. Biết sử dụng phối hợp cả ba yếu tố: Tự sự, Miêu tả, Biểu cảm vào cùng một bài văn. Phần văn học, học sinh cần phải học thuộc lòng, cảm nhận sâu sắc từng tác phẩm. Phần tiếng việt, ngữ pháp quan trọng nhất là 8 biện pháp tu từ (so sánh, ẩn dụ, hoán dụ, nhân hóa, điệp ngữ, chơi chữ, nói quá, nói giảm – nói tránh,…). Nắm chắc được tất cả các phần này thì học sinh mới làm được bài văn một cách sáng tạo, đầy nghệ thuật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;span style="color: #ff6600;"&gt;&lt;strong&gt;Môn Tiếng Anh:&lt;/strong&gt; &lt;/span&gt;Gia sư sẽ hỗ trợ cho các học sinh cả 4 kỹ năng nghe, nói, đọc, viết. Vận dụng được cấu trúc ngữ pháp, ghi nhớ nhiều từ vựng và phát âm tốt. Giúp học sinh làm được một số bài tập khó liên quan đến: Preposition, Collocation, Idioms, Phrasal Verb…dạng bài điền từ vào đoạn văn hay viết đoạn văn bằng tiếng anh một cách chính xác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;span style="color: #ff6600;"&gt;&lt;strong&gt;Môn Vật Lý:&lt;/strong&gt;&lt;/span&gt;&amp;nbsp;Với chương trình lớp 7, &lt;strong&gt;gia sư tại nhà&lt;/strong&gt; không quá khó để hướng dẫn cho học sinh hiểu được thế nào là: Quang học? Âm học? Điện học?. Từ đó vận dụng các công thức làm nhanh các bài tập vật lý từ cơ bản đến nâng cao một cách nhanh chóng. Đồng thời gia sư lớp 7 sẽ giải thích một số hiện tượng vật lý trong đời sống, giúp học sinh tăng thêm vốn hiểu biết của mình và yêu thích môn học này hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif; color: #0000ff;"&gt;&lt;strong&gt;Lợi ích khi thuê gia sư dạy kèm lớp 7 tại nhà cho con&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Giúp con tìm ra phương pháp học tập hiệu quả ngay cả khi bị mất gốc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Nhanh chóng tìm lại niềm yêu thích các môn chủ đạo: Toán, Văn, Anh, Lý&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Giúp con có tính tự giác, kiên trì và có ý thức học tập.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Những em có tố chất tốt, gia sư hướng dẫn các em đào sâu kiến thức thông qua phương pháp giải nhanh, tư duy sâu sắc cùng những mẹo làm bài rất hữu ích phục vụ cho các kỳ thi đạt hiệu quả cao.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Không chỉ đơn thuần là người thầy, người cô. &lt;strong&gt;Gia sư lớp 7 tại Hà Nội&amp;nbsp;&lt;/strong&gt;còn là người bạn để chia sẻ nhưng tâm tư tình cảm của lứa tuổi học trò, từ đó thấu hiểu và đưa ra lời khuyên hữu ích cho các em.&lt;/span&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif; color: #0000ff;"&gt;&lt;strong&gt;Gia sư lớp 7 tại nhà hỗ trợ phụ huynh những gì?&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Hình thức thuê gia sư tại nhà sẽ tiết kiệm được thời gian và công sức hơn vì bạn không phải đưa đón con đi lại vất vả.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Giải quyết một phần áp lực khi bạn quá bận rộn, không có thời gian và kiến thức để giúp con học tốt hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Hình thức dạy một thầy một trò giúp con bạn tiến bộ nhanh hơn vì nhận được sự quan tâm tuyệt đối từ người dạy.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Không lo lắng con bạn sẽ ra ngoài tụ tập bạn bè hay bỏ học chơi game…&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Nắm rõ được thông tin và có quyền lựa chọn gia sư tốt nhất, phù hợp với với tính cách, lực học của con.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Được học thử 2 buổi miễn phí để đánh giá chất lượng của gia sư.&lt;/span&gt;&lt;/p&gt;&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="at-above-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-8/"&gt;&lt;/div&gt;
+&lt;p&gt;Lớp 8 là năm học cận kề với năm học cuối cùng của bậc trung học cơ sở, đây cũng là năm học mà các kiến thức trọng tâm, chuyên sâu cho năm học cuối cấp và các năm học chuyển cấp sau này&lt;/p&gt;
+&lt;p&gt;nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 8&lt;/strong&gt;&amp;nbsp;cho cháu là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;em&gt;&lt;strong&gt;trung tâm gia sư cao cấp Bảo Trang&lt;/strong&gt;&lt;/em&gt; chúng tôi giúp bạn.&lt;/p&gt;
+&lt;p&gt;&lt;img class="img-fluid" src="http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-hoa-8_21.jpg" alt="" width="1000" height="750" srcset="http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-hoa-8_21.jpg 1000w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-su-hoa-8_21-768x576.jpg 768w" sizes="(max-width: 1000px) 100vw, 1000px"&gt;&lt;/p&gt;
+&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 8 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;
+&lt;p&gt;&lt;img class="img-fluid" src="http://giasutamduc.net/wp-content/uploads/2017/09/gia-s%C6%B0-l%E1%BB%9Bp-8-H%C3%A0-%C4%90%C3%B4ng1.jpg" alt="" width="1400" height="788" srcset="http://giasutamduc.net/wp-content/uploads/2017/09/gia-sư-lớp-8-Hà-Đông1.jpg 1400w, http://giasutamduc.net/wp-content/uploads/2017/09/gia-sư-lớp-8-Hà-Đông1-768x432.jpg 768w" sizes="(max-width: 1400px) 100vw, 1400px"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #993300;"&gt;“ &lt;em&gt;Đội ngũ gia sư cao cấp Bảo Trang hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
+    &lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-8/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="at-above-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-9/"&gt;&lt;/div&gt;
+&lt;p&gt;Năm học lớp 9 là năm học chuyển cấp, để các con lựa chọn vào các trường THPT phù hợp. Lúc này với lượng kiến thức “khổng lồ” việc học gia sư tại nhà là điều vô cùng cần thiết. Gia sư không đơn giản chỉ kèm bài về nhà, mà còn định hướng, hướng dẫn các cháu ôn luyện đề thi chuyển cấp.&lt;/p&gt;
+&lt;p&gt;nếu bạn không có&amp;nbsp; thời gian để theo sát việc học của con em mình thì việc&amp;nbsp;&lt;strong&gt;tìm gia sư lớp 9&lt;/strong&gt;&amp;nbsp;cho con&amp;nbsp; là một lựa chính xác, nhưng tìm &lt;strong&gt;&lt;em&gt;gia sư&lt;/em&gt;&lt;/strong&gt; tại đâu để đảm bảo chất lượng? Hãy để &lt;em&gt;&lt;strong&gt;trung tâm gia sư cao cấp Bảo Trang&lt;/strong&gt;&lt;/em&gt; chúng tôi giúp bạn.&lt;/p&gt;
+&lt;h4&gt;&lt;span style="color: #ff0000;"&gt;&lt;strong&gt;&lt;img class="img-fluid" src="http://giasutamduc.net/wp-content/uploads/2017/09/l%E1%BB%9Bp-9.jpg" alt="" width="4288" height="2848" srcset="http://giasutamduc.net/wp-content/uploads/2017/09/lớp-9.jpg 4288w, http://giasutamduc.net/wp-content/uploads/2017/09/lớp-9-768x510.jpg 768w, http://giasutamduc.net/wp-content/uploads/2017/09/lớp-9-225x150.jpg 225w" sizes="(max-width: 4288px) 100vw, 4288px"&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 9 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;
+&lt;p&gt;&lt;img class="img-fluid" src="http://giasutamduc.net/wp-content/uploads/2017/09/l%E1%BB%9Bp-10.jpg" alt="" width="1230" height="797" srcset="http://giasutamduc.net/wp-content/uploads/2017/09/lớp-10.jpg 1230w, http://giasutamduc.net/wp-content/uploads/2017/09/lớp-10-768x498.jpg 768w" sizes="(max-width: 1230px) 100vw, 1230px"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #993300;"&gt;“ &lt;em&gt;Đội ngũ gia sư cao cấp Bảo Trang hiểu rằng chúng tôi là người mà phụ huynh gửi gắm kỳ vọng. bằng kinh nghiệm chuyên môn, lòng yêu nghề chúng tôi khẳng định con bạn chắc chắn sẽ tiến bộ rõ rệt sau 15 buổi học, nếu không trung tâm sẽ không thu học phí”&lt;/em&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Đừng do dự hãy nhấc máy lên gọi cho chúng tôi. Đầu tư học tập là đầu tư thông minh cho tương lai con em của bạn.&lt;/p&gt;
+&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;
+&lt;!-- AddThis Advanced Settings above via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings below via filter on the_content --&gt;&lt;!-- AddThis Advanced Settings generic via filter on the_content --&gt;&lt;!-- AddThis Share Buttons above via filter on the_content --&gt;&lt;!-- AddThis Share Buttons below via filter on the_content --&gt;&lt;div class="at-below-post addthis_tool" data-url="http://giasutamduc.net/gia-su-lop-9/"&gt;&lt;/div&gt;&lt;!-- AddThis Share Buttons generic via filter on the_content --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="font-size: 18pt; font-family: arial, helvetica, sans-serif; color: #ff0000;"&gt;&lt;strong&gt;Gia sư giỏi lớp 10 tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
+	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt; color: #000000;"&gt;Nhằm cung cấp gia sư giỏi dạy kèm tại Hà Nội, Trung Tâm Gia Sư cao cấp Bảo Trang&amp;nbsp;với đội ngũ giáo viên, sinh viên nhiều năm kinh nghiệm chuyên dạy kèm các môn Toán, Ngữ Văn, Tiếng Anh, Vật Lý, Hoá Học…từ cơ bản đến nâng cao. Giúp các em có nền tảng kiến thức vững chắc để sau này ôn thi Tốt Nghiệp, Đại Học thành công.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Theo chương trình giáo dục phổ thông hiện nay do Bộ giáo dục &amp;amp; Đào tạo mới ban hành thì năm 2018 sách giáo khoa lớp 10 sẽ có sự cải cách mạnh mẽ. Việc dạy và học cũng có sự thay đổi rõ rệt, điều đó ít nhiều làm ảnh hương đến khả năng thích nghi và tiếp thu kiến thức lớp 10 của các em.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Hiểu được những khó khăn đó, Gia sư cao cấp Bảo Trang – Một trung tâm hợp pháp, được cấp chứng nhận về chất lượng đào tạo, giảng dạy gia sư, sẵn sàng hỗ trợ các em vững vàng hơn về mặt kiến thức.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;img class="aligncenter wp-image-2259" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-10.jpg" alt="Gia sư lớp 10" width="500" height="313"&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Trong nhiều năm trở lại đây chúng tôi quy tụ được hơn 15.000 giáo viên, sinh viên xuất sắc được phân bố đều trên tất cả các quận, huyện Hà Nội như: Đống Đa, Hai Bà Trưng, Cầu Giấy, Hoàng Mai, Thanh Xuân, Hà Đông, Ba Đình, Tây Hồ, Hoàn Kiếm, Long Biên…&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Với 10 năm hoạt động về lĩnh vực giáo dục, &lt;strong&gt;gia sư cao cấp Bảo Trang&lt;/strong&gt; rất vinh dự là đơn vị cung cấp gia sư chất lượng hàng đầu Hà Nội.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Ngoài việc trang bị những kiến thức trên nhà trường, các em còn được trang bị về kiến thức văn hóa, ứng xử, đời sống. Trong quá trình làm việc số lượng phụ huynh và học sinh tín nhiệm lên tới 10.000 gia đình, cùng với nhiều phản hồi tích cực từ quý phụ huynh học sinh. Đó là động lực để chúng tôi cố gắng hoàn thành tốt trách nhiệm mà phụ huynh đã tin tưởng.&lt;/span&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif; color: #0000ff;"&gt;&lt;strong&gt;Thông tin gia sư lớp 10 ở Hà Nội&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;em&gt;– &amp;nbsp; Đội ngũ gia sư: &lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Giáo viên giỏi đang giảng dạy và công tác tại trường cấp 2 uy tín Hà Nội: THCS Giảng Võ, Yên Hòa, Nguyễn Trường Tộ, Lương Thế Vinh…&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Giáo viên tốt nghiệp sư phạm, đang dạy tại trung tâm, đang theo học thạc sỹ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Sinh viên giỏi thuộc các trường tốp đầu Hà Nội: Đại Học Sư Phạm, Đại Học Quốc Gia, Đại Học Ngoại Thương, Đại Học Ngoại Ngữ, Đại Học Bách Khoa…&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;em&gt;– &amp;nbsp; Chuyên môn: &lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Ngoài kiến thức vững vàng, gia sư phải là người có phẩm chất đạo đức tốt, tác phong nhà giáo chững chạc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Khả năng truyền đạt dễ hiểu trên cả hai phương diện nói và viết&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Nắm bắt tâm lý học sinh và xử lý tình huống khéo léo.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Bài giảng đa dạng, sinh động, tạo cảm hứng cho học sinh tự học – tự sáng tạo.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;em&gt;– &amp;nbsp; Trình độ gia sư:&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Giáo viên giỏi có nhiều năm công tác giảng dạy học sinh THPT lớp 10, 11, 12. Kinh nghiệm từ 5 năm trở lên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Sinh viên giỏi có thành tích học tập cao, nhiều năm đạt học sinh giỏi, đạt giải cấp tỉnh, thành phố, có bí quyết thành công trong các kỳ thi lớn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Điểm thi Đại Học gia sư sinh viên các khối A, A1, B, C, D từ 25 điểm. Kinh nghiệm gia sư lớp 10 &amp;nbsp;từ 2 năm trở lên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-size: 14pt; color: #008000;"&gt;&lt;strong&gt;&lt;span style="font-family: arial, helvetica, sans-serif;"&gt;Bảng giá gia sư chất lượng cao tại Hà Nội&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: center;"&gt;&lt;img class="alignnone wp-image-2250" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/bang-gia-gia-su.jpg" alt="Bảng giá gia sư" width="620" height="332"&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif; color: #0000ff;"&gt;&lt;strong&gt;Lợi ích khi có gia sư giỏi lớp 10 dạy kèm tại nhà là gì?&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;em&gt;– &amp;nbsp; Giúp ích cho học sinh&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Tìm ra phương pháp học tập hiệu quả ngay cả khi bị mất gốc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Nhanh chóng tìm lại niềm yêu thích các môn chủ đạo: Toán, Văn, Anh, Lý, Hóa.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Những em có tố chất tốt, gia sư sẽ luyện thi học sinh giỏi, luyện thi chuyên cho các em.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Giúp con có tính tự giác, kiên trì và có ý thức học tập.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;em&gt;– &amp;nbsp; Hỗ trợ cho phụ huynh&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Giám sát các em không cho các em ra ngoài tụ tập bạn bè hay bỏ học chơi game…&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Giúp phụ huynh tiết kiệm được thời gian, công sức vì không phải đưa đón con đi lại vất vả.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Giải quyết một phần áp lực khi bạn quá bận rộn, không có thời gian và kiến thức để giúp con học tốt hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Con bạn sẽ tiến bộ nhanh hơn vì nhận được sự quan tâm tuyệt đối từ người dạy.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;img class="aligncenter wp-image-2260" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-gioi-lop-10.jpg" alt="Gia sư giỏi lớp 10" width="450" height="299"&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif; color: #0000ff;"&gt;&lt;strong&gt;Cam kết của chúng tôi:&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Học sinh sẽ tiến bộ sau 10 buổi học đầu tiên&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Được học thử 2 buổi miễn phí để gia đình hoàn toàn yên tâm về chất lượng gia sư&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Đổi gia sư bất kỳ lúc nào nếu phụ huynh, học sinh cảm thấy không hài lòng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Hỗ trợ tư vấn vài vở, phương pháp học 24/7 qua điện thoại, mail, facebook…hoàn toàn miễn phí.&lt;/span&gt;&lt;/p&gt;
+    &lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="font-size: 18pt; color: #ff0000; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Gia sư giỏi lớp 11 kèm tại nhà dành cho con bạn&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
+	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif; color: #000000;"&gt;Gia sư cao cấp Bảo Trang xin giới thiệu dịch vụ gia sư lớp 11 chất lượng cao tại Hà Nội. Đội ngũ gia sư là giáo viên, sinh viên giỏi nhận dạy kèm tại nhà các môn Toán, Lý, Hóa, Văn, Anh lớp 11 hiệu quả cao nhất trong thời gian ngắn nhất.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Lớp 12 các em mới phải đối mặt với kỳ thi Trung học phổ thông quốc gia, nhưng lớp 11 lại là nền tảng vô cùng quan trọng để quyết định xem các em lựa chọn khối thi theo ban A, A1, B, D hay C… cũng như dự định thi trường Đại Học nào phù hợp với năng lực của mình. &lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Ngay từ bây giờ, hãy thực hiện ước mơ của mình bằng việc lên kế hoạch và chiến lược học tập cụ thể thì mới có thể thành công được. Ngoài việc tự học – tự sáng tạo các em có thể&amp;nbsp;&lt;strong&gt;tìm&lt;/strong&gt;&amp;nbsp;&lt;strong&gt;gia sư lớp 11&lt;/strong&gt;&amp;nbsp;dạy kèm tại nhà nhằm hỗ trợ thêm kiến thức là vô cùng cần thiết.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;img class="wp-image-1734 aligncenter" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-11-day-kem-tai-nha.jpg" alt="gia-su-lop-11-day-kem-tai-nha" width="400" height="300"&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;&lt;span style="color: #0000ff; font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Lí do quan trọng cần đến sự trợ giúp của gia sư lớp 11?&lt;/strong&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;Muốn cải thiện thành tích:&lt;/span&gt;&lt;/strong&gt; Nếu các em chưa hài lòng với kết quả học tập hiện tại thì ngay từ hôm nay hãy lên một kế hoạch cụ thể về phương pháp học tập để nhanh chóng đạt được kết quả cao trong kỳ thi sắp tới. Gia sư sẽ là người giúp đỡ các em lập thời gian biểu một cách khoa học, từ đó thực hiện hiệu quả sao cho tiết kiệm thời gian và công sức nhất.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;Gia đình không có thời gian dành cho con:&lt;/span&gt;&lt;/strong&gt; Phụ huynh vì quá bận rộn với công việc bên ngoài xã hội, không có nhiều thời gian quán xuyến, quan tâm, sát sao đến các em, đôi khi các em trở nên xao nhãng trong việc học. Vậy vào thời điểm này, một &lt;strong&gt;gia sư giỏi lớp 11&lt;/strong&gt; sẽ bù đắp được khoảng thời gian đó bằng việc cung cấp thêm lượng kiến thức mới cho các em, giúp các em giữ vững tinh thần học tập một cách tốt nhất.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;span style="color: #008000;"&gt;&lt;strong&gt;Sự kì vọng của các bậc phụ huynh dành cho con:&lt;/strong&gt;&lt;/span&gt;&amp;nbsp;Nhiều bậc phụ huynh luôn muốn con đạt thành tích cao trong học tập để bằng bạn bằng bè, muốn con trang bị đầy đủ kiến thức để có thể vượt qua các kì thi và có tương lai tươi sáng hơn nên không ngại đầu tư cho con.&lt;/span&gt;&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; color: #0000ff; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Năm học lớp 11 cần thuê gia sư môn nào nhất?&lt;/strong&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Ở lớp 11 các em nên tập trung chú trọng vào các môn Toán, Lý, Hóa, Văn, Anh vì đây là những môn cơ bản quan trọng nhất trong chương trình giảng dạy của tất cả các khối lớp, và có mặt hầu hết trong tất cả các kì thi Tốt nghiệp – Đại học.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;span style="color: #008000;"&gt;&lt;strong&gt;Toán lớp 11&lt;/strong&gt;:&lt;/span&gt; Lượng giác, xác suất, giới hạn, đạo hàm; đường thẳng, mặt phẳng, vector trong không gian… Đây là kiến thức mà các em phải thành thạo trong chương trình toán lớp 11, cũng là phần không thể thiếu trong đề thi Tốt nghiệp – Đại học. Thế nên&amp;nbsp;&lt;strong&gt;Gia sư lớp 11 giỏi&lt;/strong&gt;&amp;nbsp;sẽ giúp các em trang bị thêm kiến thức còn thiếu sót cùng với những kĩ năng tư duy logic giải toán nhanh để các em tự tin bước vào kỳ thi lớn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;span style="color: #008000;"&gt;&lt;strong&gt;Văn lớp 11&lt;/strong&gt;:&lt;/span&gt; Chủ yếu là thơ trung đại, thơ lãng mạn giai đoạn 1932-1945, cộng thêm Văn học hiện thực phê phán và một số tác phẩm nước ngoài. Đôi khi các em lơ là sẽ dẫn đến việc phân tích lạc đề và không hiểu nội dung. Cách tốt nhất để rèn luyện viết một bài Văn hay, ghi nhớ tác phẩm dễ dàng là nhờ sự trợ giúp của&amp;nbsp;&lt;strong&gt;gia sư giỏi lớp 11&lt;/strong&gt;. Chỉ cần có người định hướng chuẩn xác thì chắc chắn các em sẽ viết được những bài văn trau chuốt, sáng tạo hơn&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;span style="color: #008000;"&gt;&lt;strong&gt;Tiếng anh lớp 11&lt;/strong&gt;:&lt;/span&gt; Vẫn bao gồm 4 kĩ năng nghe nói đọc viết, nhưng thiếu đi kĩ năng nào các em sẽ bỏ mất điểm phần đó. Học tiếng anh đòi hỏi phải kiên trì, nỗ lực rất cao.&amp;nbsp;&lt;strong&gt;Gia sư lớp 11&lt;/strong&gt;&amp;nbsp;sẽ bổ trợ cho các em đầy đủ 4 kĩ năng trên và giúp các em nhanh chóng tự tin giao tiếp tiếng anh..&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;span style="color: #008000;"&gt;&lt;strong&gt;Vật lý lớp 11:&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&amp;nbsp;Gồm&amp;nbsp;nhiều kiến thức khó xoay quanh các chương: Điện tích, điện trường, dòng điện, khúc xạ ánh sáng và các dụng cụ quang học…thì việc cần gia sư giỏi Vật Lý bổ trợ kiến thức là rất cần thiết. Muốn học tốt môn học này các em phải hiểu được định nghĩa, đại lượng đặc trưng vật lý, hay thuộc nhiều công thức. &lt;strong&gt;Gia sư lớp 11 tại Hà Nội&lt;/strong&gt;&amp;nbsp;với nhiều thủ thuật và cách thức làm bài thông minh sẽ hướng dẫn các em giải bài tập theo nhiều phương pháp mới nhất.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;&lt;span style="color: #008000;"&gt;Hóa Học 11:&lt;/span&gt;&amp;nbsp;&lt;/strong&gt;Kiến thức thi Đại Học môn này được dàn trải từ lớp 10 đến lớp 12. Vậy năm học lớp 11 các em tuyệt đối không được chủ quan với &amp;nbsp;môn Hóa. &lt;strong&gt;Gia sư giỏi lớp 11&lt;/strong&gt; sẽ giúp các em tìm đọc những quyển sách hay như: Phương pháp giải nhanh hóa 11, Tuyển tập trắc nghiệm Hóa 11, Để học tốt Hóa hữu cơ &amp;amp; Hóa vô cơ… sau đó sẽ hướng dẫn cho các em nắm chắc kiến thức trọng tâm cũng như phương pháp giải đề thi để các em có thêm kinh nghiệm sau này ôn thi Đại Học khối A, khối B.&lt;/span&gt;&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;&lt;span style="color: #0000ff; font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;Quý phụ huynh học sinh cầm lựa chọn gia sư lớp 11 ở đâu uy tín, đảm bảo chất lượng?&lt;/strong&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;Gia Sư cao cấp Bảo Trang&amp;nbsp;Hà Nội – Một trong những Trung tâm gia sư có pháp nhân, pháp lý đầy đủ. Chúng tôi tự tin khẳng định chất lượng và uy tín của mình trong 10 năm qua. Với đội ngũ gia sư nhiệt tình, trách nhiệm có phương pháp dạy sáng tạo, khoa học, chắc chắn sẽ làm hài lòng bất cứ yêu cầu nào từ quý phụ huynh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Cam kết học sinh sẽ tiến bộ sau 10 buổi khi học với gia sư của chúng tôi.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&amp;nbsp;&lt;/strong&gt; Học sinh được học thử 2 buổi miễn phí để đánh giá chất lượng&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Miễn phí 100% chi phí tư vấn và cung cấp gia sư&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Gia sư có lý lịch rõ dàng, có phẩm chất đạo đức tốt, có kỹ năng sư phạm 100%&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Phương pháp giảng dạy sáng tạo, khoa học, thu hút học sinh&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Dạy theo giáo án chuẩn của thầy cô trong nhà trường do Bộ Giáo Dục ban hành&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Đổi gia sư bất kỳ khi nào nếu phụ huynh &amp;amp; học sinh cảm thấy không phù hợp&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Gia sư là giáo viên, sinh viên ưu tú, có thành tích học tập giỏi.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 12pt; font-family: arial, helvetica, sans-serif;"&gt;&lt;strong&gt;•&lt;/strong&gt;&amp;nbsp; Kiểm tra sự tiến bộ của học sinh thường xuyên, liên tục theo tuần hoặc theo tháng&lt;/span&gt;&lt;/p&gt;
+    &lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align: center;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 18pt;"&gt;&lt;strong&gt;&lt;span style="color: #ff0000;"&gt;Gia sư giỏi lớp 12 kèm tại nhà dành cho con bạn&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
+	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="color: #000000; font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Năm học cuối cấp chắc hẳn khiến các bậc phụ huynh và các em học sinh cảm thấy hồi hộp, lo lắng trước những kì thi quan trọng, đặc biệt là kỳ thi Đại Học. Hàng loạt các môn học tự nhiên khối A, A1, B, D… thậm chí cả môn thi xã hội như khối C, đang khiến các em trở nên rối loạn, còn các bậc phụ huynh loay hoay tìm cách giúp con mình đảm bảo kiến thức, giảm bớt lo lắng và áp lực tinh thần để vượt qua kì thi thành công. Một&amp;nbsp;&lt;strong&gt;gia sư lớp 12&lt;/strong&gt; sẽ giúp các em giữ vững tâm lý, trau dồi kiến thức để bước vào kỳ thi quan trọng đạt thành tích cao nhất.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;img class="aligncenter wp-image-1845" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-on-thi-dai-hoc.jpg" alt="Gia sư ôn thi đại học" width="450" height="309"&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;&lt;span style="color: #0000ff; font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư giỏi lớp 12 trang bị cho các em những gì?&lt;/strong&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Đứng trước lượng kiến thức rất lớn của chương trình lớp 12 thì việc lựa chọn một gia sư giỏi giúp các em tự tin bước tiếp trên con đường dẫn tới thành công là rất cần thiết, chắc chắn&amp;nbsp;&lt;strong&gt;gia sư giỏi lớp 12&lt;/strong&gt; sẽ cung cấp và giúp các em tổng hợp các kiến thức quan trọng, đưa ra phương pháp học đứng đắn để các em nỗ lực hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Ở lớp 12 lượng kiến thức và độ khó tăng gấp 2, gấp 3 lần so với chương trình học của các lớp dưới. Một &lt;strong&gt;gia sư lớp 12&amp;nbsp;tại nhà&lt;/strong&gt; sẽ nhanh chóng hỗ trợ, bổ sung cho các em những kiến thức trọng tâm mà trên lớp các em chưa nắm bắt đầy đủ từ thầy cô.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Phần lớn các môn thi TN – ĐH quan trọng năm lớp 12 gồm: Toán, Văn, Anh, Hóa, Lý, Sinh. Nếu các em chỉ chú tâm vào một, hai môn chính mình thích thì những môn học khác chắc hẳn sẽ bị đánh mất điểm một cách đáng tiếc. &lt;strong&gt;Gia sư giỏi lớp 12 &lt;/strong&gt;lúc này&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;sẽ là người giúp các em hệ thống lại kiến thức của tất cả các môn nhanh chóng và hiệu quả.&lt;/span&gt;&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;&lt;span style="color: #0000ff; font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Học sinh lớp 12 hãy lựa chọn môn thi và khối thi hợp lý&lt;/strong&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Vì đang dần bước tới với kì thi đại học nên việc ôn thi các môn theo khối sẽ giúp các em phân chia được lượng kiến thức và ôn luyện đúng trọng tâm.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư Toán Lý Hóa lớp 12&lt;/strong&gt;: Đây là các môn khối A, và toán là môn chủ đạo trong hệ thống chương trình học giáo dục, nên lựa chọn một&amp;nbsp;gia sư toán là vô cùng quan trọng, ngoài ra các em cũng nên học gia sư Lý,&amp;nbsp;gia sư Hóa để giúp cho kiến thức của 3 môn đồng đều hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư Toán Hóa Sinh lớp 12:&amp;nbsp;&lt;/strong&gt;Những môn thi của khối B này về cơ bản là rất khó đặc biệt là Toán. Để đạt điểm cao khi thi khối này các em cần phải nắm chắc lý thuyết, làm nhiều bài tập và vận dụng tư duy cũng như kinh nghiệm để giải quyết. Để tiết kiệm thời gian, công sức trong quá trình ôn luyện học sinh nên tìm một &lt;strong&gt;gia sư giỏi khối B&lt;/strong&gt; hỗ trợ cho mình trong quá trình ôn thi ĐH. Với nhiều năm kinh nghiệm và thành tích cao trong các kỳ thi lớn, anh chị gia sư sẽ truyền cho các em những thủ thuật giải bài tập nhanh bằng nhiều mẹo hay và rất dễ hiểu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư Văn Sử Địa lớp 12&lt;/strong&gt;: Ba môn này nằm trong khối C. Các em đừng nghĩ rằng các môn xã hội là đơn giản và dễ học thuộc. Nếu không có phương pháp học tập hợp lý thì trong bài thi dễ dẫn đến tình trạng “học trước quên sau”. &lt;strong&gt;Gia sư giỏi khối C &lt;/strong&gt;sẽ truyền đạt cho các em kiến thức các môn Văn, Sử, Địa chắc chắn hơn. Thậm chí đứng trước các dạng đề văn nghị luận xã hội khó như mấy năm trở lại đây các em sẽ không còn bỡ ngỡ nữa.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư Toán Văn Anh lớp 12&lt;/strong&gt;: Với các em có ý định thi khối D thì nên tìm gia sư của các môn này. Cho dù môn Toán không hóc búa như khối A, môn Văn không khó như khối C, nhưng các em cũng đừng nên chủ quan. Đặc biệt là môn Tiếng Anh, đây là môn chủ đạo cho khối D nên để rèn luyện được cả 4 kĩ năng nghe – nói – đọc – viết các em cần có sự dẫn dắt của một&amp;nbsp;&lt;strong&gt;gia sư tiếng anh giỏi &lt;/strong&gt;cả phần ngữ pháp và phát âm. Chắc chắn các em sẽ rèn luyện các kỹ năng này một cách thành thạo.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;img class="aligncenter wp-image-1846 size-full" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-lop-12.jpg" alt="Gia sư lớp 12" width="400" height="299"&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;span style="color: #0000ff; font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư chất lượng cao tại Hà Nội&lt;/strong&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Dạy thử 2 buổi miễn phí để đánh giá chất lượng học sinh&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Cam kết sau 10 buổi học sinh có tiến bộ, nâng cao được kiến thức cũng như điểm thi.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Luyện thi Đại Học bài bản, phương pháp tư duy nhanh, đảm bảo đầu ra cho các em.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Cung cấp gia sư giỏi miễn phí 100% phù hợp với yêu cầu gia đình.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Kiểm tra, giám sát sự tiến bộ của học sinh hàng tuần, hàng tháng.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;– &amp;nbsp;Đổi gia sư bất kỳ lúc nào nếu phụ huynh và học sinh cảm thấy không phù hợp.&lt;/span&gt;&lt;/p&gt;&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="text-align: center;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 18pt; color: #ff0000;"&gt;&lt;strong&gt;Gia sư theo môn cho học sinh từ lớp 1 đến lớp 12&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;div class="vc_message_box vc_message_box-standard vc_message_box-rounded vc_color-info"&gt;
+	&lt;div class="vc_message_box-icon"&gt;&lt;i class="fa fa-graduation-cap"&gt;&lt;/i&gt;
+	&lt;/div&gt;&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt; color: #000000;"&gt;Nhu cầu gia sư ngày một lớn thì đòi hỏi về vấn đề đảm bảo chất lượng càng được nâng cao. Để trở thành điểm tựa vững vàng chấp cánh cho học sinh thực hiện ước mơ của bản thân trung tâm gia sư cao cấp Bảo Trang đã xây dựng nên đội ngũ gia sư theo môn với nền tảng và cơ cấu vững chắc nhất cam kết giúp các em tạo nên những thành tích tuyệt vời.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;p&gt;&lt;img class="size-full wp-image-6302 aligncenter" src="https://giasusupham.com.vn/wp-content/uploads/2015/10/gia-su-theo-mon.jpg" alt="Gia sư theo môn" width="550" height="367"&gt;&lt;/p&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;em&gt;Gia sư theo môn cho học sinh từ cơ bản đến nâng cao&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="color: #0000ff; font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Địa chỉ cung cấp gia sư theo môn chất lượng hàng đầu hiện nay&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Hơn 10 năm làm việc trong ngành giáo dục Trung Tâm cao cấp Bảo Trang không chỉ giới thiệu đến các bậc cha mẹ và học viên những giáo viên đạt tiêu chuẩn gồm kiến thức – đạo đức – kỹ năng mà còn là địa chỉ quen thuộc tin cậy đối với hàng ngàn học sinh. Nhằm đạt được điều nay chúng tôi đã sàng lọc, lựa chọn rất khắt khe:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư phải đạt tiêu chuẩn:&lt;/strong&gt; có bằng cấp đại học chính quy trở lên, kinh nghiệm cũng như kỹ năng sư phạm là yếu tố quan trọng nhất. Trình độ kiến thức vững chắc, có phương pháp giảng dạy khoa học và sử dụng hợp lý với từng trình độ của học viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Kỹ năng sư phạm:&lt;/strong&gt; với mọi lứa tuổi gia sư sẽ có những cách quan tâm và chăm sóc khác nhau. Chẳng hạn như với các học sinh ở bậc tiểu học, dựa trên tích cách ham chơi, nghịch ngợm nhưng ưa thích các hình ảnh mới mẻ, màu sắc. Gia sư sẽ dựa vào đó mà trong quá trình dạy học sẽ kèm theo hình ảnh, video về môn học hấp dẫn sự tập trung của các em…&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Phương pháp học:&lt;/strong&gt; cách học tư duy kích thích niềm yêu thích với môn học, phân phối kế hoạch và chiến lược học tập vượt trội đặc biệt khai thác tối đa sở trường nhằm phát huy tối ưu kỹ năng của học sinh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Uy tín, tin cậy:&lt;/strong&gt; Gia sư của trung tâm không chỉ là những giáo viên đã và đang dạy tại các trường chuẩn quốc gia hay sinh viên của các trường đại học lớn có tiếng trong nước. Mà còn là những thủ khoa, giáo viên đã về hưu hay thạc sỹ, tiến sỹ,…có thành tích xuất sắc về chuyên môn dạy học nên phụ huynh học sinh hoàn toàn có thể yên tâm tin trưởng trung tâm gia sư cao cấp Bảo Trang.&lt;/span&gt;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;span style="color: #0000ff; font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư theo môn đáp ứng mọi nhu cầu của học sinh&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Đội ngũ gia sư theo môn học, theo yêu cầu của phụ huynh học sinh và đáp ứng tốt mọi điều kiện. Cụ thể:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư môn Toán:&lt;/strong&gt; giáo viên, sinh viên chuyên Toán các trường sư phạm hoặc đại học bách khoa, ngoại thương, kinh tế, ngân hàng…sẽ đảm nhận các lớp dạy với chương trình học cụ thể nhất. Tùy vào năng lực mà có cách truyền đạt và hướng dẫn khác nhau như học yếu thì giảng bài chậm lại, học giỏi sẽ làm những bài tập có tính khó hơn nhằm nâng cao kiến thức.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư Lý, Hóa:&lt;/strong&gt; gia sư chuyên Lý, Hóa hoặc có thành tích xuất sắc chuyên khối A sẽ khiến các em có niềm đam mê với từng bộ môn. Đối với môn Lý là một môn khó nhưng chỉ cần có cách học logic là các em có thể học tốt nó như vừa học lý thuyết vừa xem thí nghiệm qua video để hiểu sâu bài. Kiến thức Hóa có mối liên hệ với nhau nên khi học cần ôn tập từ đâu không được bỏ qua phần nào,…&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư môn Văn:&lt;/strong&gt; Văn học đòi hỏi cần có sự suy luận, lập luận, có đầy đủ kiến thức xã hội đặc biệt là niềm đam mê với nó. Do đó gia sư sẽ chỉ cho học sinh cách chia thành các đề chuyên văn và kết hợp hình ảnh chi tiết đặc sắc trong văn bản, dạy theo từng giai đoạn văn học cụ thể hoặc cho luyện các đề thi của năm trước.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;Ngoài ra còn có các môn như Tiếng Anh, Tiếng Pháp, Tiếng Trung, Tiếng Hàn,…và còn đội ngũ gia sư theo từng khối học:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư Tiểu Học:&lt;/strong&gt; bao gồm sinh viên các trường sư phạm, kinh tế, ngoại thương trên 2 năm kinh nghiệm dạy kèm cho các lớp 1,2,3,4,5, giáo viên trường tiểu học trên địa bàn Hà Nội và cả giáo viên về hưu trên 50. Đều có kỹ năng sư phạm tốt và nhiều năm chăm sóc và dạy trẻ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư THCS:&lt;/strong&gt; giáo viên hỗ trợ học sinh nắm vững các kiến thức cơ bản đặc biệt là lớp 9 và cố gắng ôn tập luyện thi học sinh giỏi, ôn thi vào trường điểm.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-family: arial, helvetica, sans-serif; font-size: 12pt;"&gt;&lt;strong&gt;Gia sư THPT:&lt;/strong&gt; giáo viên sẽ tổng hợp lại toàn bộ kiến thức đã học và giúp đỡ các em học yếu bám sát bài giảng trên lớp. Tư vấn, định hướng tương lai và đưa ra mục tiêu phù hợp với năng lực của học sinh.&lt;/span&gt;&lt;/p&gt;&lt;h4&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Điểm khác biệt của gia sư lớp 3 trung tâm gia sư cao cấp Bảo Trang:&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;KIỂM TRA ĐẦU VÀO:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Trước khi đến dạy con em bạn, đội ngũ gia sư cao cấp Bảo Trang đều trải qua những cuộc thi, kiểm tra đầu vào nghiêm ngặt để chọn ra những gia sư kinh nghiệm, tận tâm.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;NẮM BẮT TÂM LÝ:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Kiến thức thôi chưa đủ , để dạy được học sinh, trước hết gia sư phải tạo cho học sinh niềm đam mê, yêu thích trong môn học.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỒ SƠ RÕ RÀNG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Duy nhất (chỉ có tại trung tâm gia sư cao cấp Bảo Trang): gia sư có hồ sơ rõ ràng gửi gia đình khi đến dạy.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC THỬ 2 BUỔI:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Có 2 buổi dạy thử, gia sư sẽ kiểm tra năng lực học sinh từ đó sẽ có phương pháp giảng dạy phù hợp.&lt;/p&gt;&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;HỌC PHÍ GIÁ RẺ&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Học phí giá rẻ 120k/buổi 2 tiếng.&lt;/p&gt;
+&lt;p&gt;&lt;i class="fa fa-check" style="color: red;"&gt;&lt;/i&gt; &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;MIỄN PHÍ GIỚI THIỆU&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Miễn phí giới thiệu gia sư 100%.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -778,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D009F9-25AB-0C42-B33D-92FEFAAD64B5}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,106 +1693,234 @@
     </row>
     <row r="2" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
